--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_2_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>728311.4876121907</v>
+        <v>727744.2343780936</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>330165.3511247076</v>
+        <v>330165.3511247078</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681861</v>
+        <v>590120.9651681859</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>239.5719774942143</v>
       </c>
       <c r="F2" t="n">
-        <v>7.293863480540836</v>
+        <v>226.9625809401353</v>
       </c>
       <c r="G2" t="n">
-        <v>239.5719774942147</v>
+        <v>239.5719774942143</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>239.5719774942147</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>219.6687174595953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>55.6256533499315</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.4976504446955436</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>15.13315040925561</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>164.138716923775</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.293863480540836</v>
+        <v>239.5719774942143</v>
       </c>
       <c r="G5" t="n">
-        <v>48.15143536214448</v>
+        <v>239.5719774942143</v>
       </c>
       <c r="H5" t="n">
-        <v>239.5719774942139</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>210.3557206423413</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>239.5719774942143</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
         <v>86.50354346547167</v>
@@ -1023,19 +1023,19 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>134.7025354918955</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>43.35706427782458</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1060,25 +1060,25 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>17.16409275057582</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>25.15457984420468</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E8" t="n">
-        <v>270.0999616327313</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>7.293863480540836</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>218.7812714875491</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>117.5075182012715</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>135.3585910039204</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
@@ -1272,7 +1272,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>90.07428171382941</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>164.138716923775</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>255.9156736760518</v>
+        <v>255.9156736760516</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>239.1843593635992</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>13.4019449212449</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>279.4931271651976</v>
+        <v>279.4931271651974</v>
       </c>
       <c r="G11" t="n">
-        <v>286.8042176320504</v>
+        <v>286.8042176320502</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.7927153784839</v>
+        <v>67.79271537848366</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.37163684463231</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>94.07083123052311</v>
+        <v>94.07083123052287</v>
       </c>
       <c r="U11" t="n">
-        <v>123.6570423446862</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>200.7324852071759</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>12.57464235561693</v>
       </c>
       <c r="X11" t="n">
-        <v>243.0608628158262</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.8863354358926</v>
+        <v>258.8863354358924</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>43.22484761205779</v>
+        <v>43.22484761205754</v>
       </c>
       <c r="D12" t="n">
-        <v>18.31168725930236</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>28.23269739183063</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8895492922891</v>
+        <v>8.088812976945682</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>81.90162168866219</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>38.67818475911799</v>
+        <v>103.9956937903435</v>
       </c>
       <c r="T12" t="n">
-        <v>70.04304831739836</v>
+        <v>70.04304831739812</v>
       </c>
       <c r="U12" t="n">
-        <v>96.84764727075583</v>
+        <v>96.84764727075559</v>
       </c>
       <c r="V12" t="n">
-        <v>215.324618382217</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>122.1886104346566</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.2829551753406</v>
+        <v>52.28295517534036</v>
       </c>
       <c r="C13" t="n">
-        <v>39.53581661585913</v>
+        <v>39.53581661585889</v>
       </c>
       <c r="D13" t="n">
-        <v>21.20483019917616</v>
+        <v>21.20483019917592</v>
       </c>
       <c r="E13" t="n">
-        <v>19.17388785785608</v>
+        <v>19.17388785785573</v>
       </c>
       <c r="F13" t="n">
-        <v>18.35828509446129</v>
+        <v>18.35828509446772</v>
       </c>
       <c r="G13" t="n">
-        <v>39.97679579547365</v>
+        <v>39.97679579547341</v>
       </c>
       <c r="H13" t="n">
-        <v>32.83704870023901</v>
+        <v>32.83704870023877</v>
       </c>
       <c r="I13" t="n">
-        <v>22.58795631646642</v>
+        <v>22.58795631646618</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.55192927976317</v>
+        <v>40.55192927976294</v>
       </c>
       <c r="S13" t="n">
-        <v>92.60382589534061</v>
+        <v>92.60382589534036</v>
       </c>
       <c r="T13" t="n">
-        <v>100.0529414482838</v>
+        <v>100.0529414482836</v>
       </c>
       <c r="U13" t="n">
-        <v>158.2454218855779</v>
+        <v>158.2454218855776</v>
       </c>
       <c r="V13" t="n">
-        <v>125.135614751596</v>
+        <v>125.1356147515957</v>
       </c>
       <c r="W13" t="n">
-        <v>158.2918405720723</v>
+        <v>158.2918405720721</v>
       </c>
       <c r="X13" t="n">
-        <v>98.33962361696605</v>
+        <v>98.33962361696581</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.94793755242502</v>
+        <v>90.94793755242478</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>255.9156736760518</v>
+        <v>255.9156736760519</v>
       </c>
       <c r="C14" t="n">
-        <v>239.1843593635994</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>228.8039964392552</v>
       </c>
       <c r="E14" t="n">
-        <v>255.3172994399442</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>279.4931271651976</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>132.3835545641291</v>
+        <v>201.2643580133831</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>207.7847854945723</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.79271537848393</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>72.37163684463232</v>
       </c>
       <c r="T14" t="n">
-        <v>94.07083123052311</v>
+        <v>94.07083123052313</v>
       </c>
       <c r="U14" t="n">
-        <v>123.6570423446862</v>
+        <v>123.6570423446863</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>200.7324852071762</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.8895492922891</v>
+        <v>8.088812976945938</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.31750903122379</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>166.4789210744612</v>
+        <v>38.678184759118</v>
       </c>
       <c r="T15" t="n">
-        <v>70.04304831739836</v>
+        <v>70.04304831739837</v>
       </c>
       <c r="U15" t="n">
-        <v>162.1651563019796</v>
+        <v>224.648383586099</v>
       </c>
       <c r="V15" t="n">
         <v>104.1079947243119</v>
       </c>
       <c r="W15" t="n">
-        <v>122.1886104346568</v>
+        <v>122.1886104346569</v>
       </c>
       <c r="X15" t="n">
-        <v>76.66089329313506</v>
+        <v>76.66089329313508</v>
       </c>
       <c r="Y15" t="n">
-        <v>75.87041510324282</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.2829551753406</v>
+        <v>52.28295517534062</v>
       </c>
       <c r="C16" t="n">
-        <v>39.53581661585913</v>
+        <v>39.53581661585915</v>
       </c>
       <c r="D16" t="n">
-        <v>21.20483019917616</v>
+        <v>21.20483019917617</v>
       </c>
       <c r="E16" t="n">
-        <v>19.17388785785597</v>
+        <v>19.17388785785599</v>
       </c>
       <c r="F16" t="n">
-        <v>18.35828509446129</v>
+        <v>18.35828509446131</v>
       </c>
       <c r="G16" t="n">
-        <v>39.97679579547365</v>
+        <v>39.97679579547366</v>
       </c>
       <c r="H16" t="n">
-        <v>32.83704870023901</v>
+        <v>32.83704870023902</v>
       </c>
       <c r="I16" t="n">
         <v>22.58795631646644</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.55192927976321</v>
+        <v>40.5519292797632</v>
       </c>
       <c r="S16" t="n">
-        <v>92.60382589534061</v>
+        <v>92.60382589534062</v>
       </c>
       <c r="T16" t="n">
         <v>100.0529414482838</v>
@@ -1828,10 +1828,10 @@
         <v>158.2918405720723</v>
       </c>
       <c r="X16" t="n">
-        <v>98.33962361696605</v>
+        <v>98.33962361696607</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.94793755242502</v>
+        <v>90.94793755242503</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>197.9992519106578</v>
       </c>
       <c r="G17" t="n">
-        <v>205.3103423775106</v>
+        <v>76.32166717711539</v>
       </c>
       <c r="H17" t="n">
         <v>126.2909102400324</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>12.57695597598324</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>42.16316709014637</v>
@@ -1910,7 +1910,7 @@
         <v>161.5669875612863</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.82682900497383</v>
+        <v>177.3924601813527</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>65.12991126316543</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8.019957708539906</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.39627852892372</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>15.35377201621596</v>
+        <v>224.648383586099</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>40.69473518011696</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.755444712908533</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>11.10995064080073</v>
+        <v>14.26478436519901</v>
       </c>
       <c r="T19" t="n">
         <v>18.55906619374394</v>
@@ -2065,7 +2065,7 @@
         <v>76.79796531753246</v>
       </c>
       <c r="X19" t="n">
-        <v>21.75602679973301</v>
+        <v>16.84574836242618</v>
       </c>
       <c r="Y19" t="n">
         <v>9.454062297885145</v>
@@ -2087,16 +2087,16 @@
         <v>147.3101211847153</v>
       </c>
       <c r="E20" t="n">
-        <v>32.25779300902645</v>
+        <v>173.8234241854044</v>
       </c>
       <c r="F20" t="n">
         <v>197.9992519106578</v>
       </c>
       <c r="G20" t="n">
-        <v>205.3103423775106</v>
+        <v>190.0356214411647</v>
       </c>
       <c r="H20" t="n">
-        <v>126.2909102400324</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8895492922891</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.39627852892372</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.4789210744612</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>15.35377201621596</v>
+        <v>23.37372972475579</v>
       </c>
       <c r="V21" t="n">
-        <v>22.61411946977205</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>78.53916713274901</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.154833724398293</v>
       </c>
       <c r="K22" t="n">
         <v>1.755444712908533</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>14.26478436519901</v>
+        <v>11.10995064080073</v>
       </c>
       <c r="T22" t="n">
         <v>18.55906619374394</v>
@@ -2406,7 +2406,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>81.90162168866219</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.895587709922568</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>224.648383586099</v>
+        <v>164.9393609011337</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.154833724398293</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>16.84574836242618</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.60889602228342</v>
+        <v>9.454062297885145</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>226.9915887862457</v>
+        <v>226.9915887862458</v>
       </c>
       <c r="C26" t="n">
-        <v>210.2602744737933</v>
+        <v>210.2602744737934</v>
       </c>
       <c r="D26" t="n">
-        <v>199.879911549449</v>
+        <v>199.8799115494492</v>
       </c>
       <c r="E26" t="n">
-        <v>226.3932145501381</v>
+        <v>226.3932145501383</v>
       </c>
       <c r="F26" t="n">
-        <v>250.5690422753915</v>
+        <v>250.5690422753916</v>
       </c>
       <c r="G26" t="n">
-        <v>257.8801327422443</v>
+        <v>257.8801327422445</v>
       </c>
       <c r="H26" t="n">
-        <v>178.8607006047661</v>
+        <v>178.8607006047662</v>
       </c>
       <c r="I26" t="n">
-        <v>38.86863048867777</v>
+        <v>38.86863048867791</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>43.44755195482617</v>
+        <v>43.44755195482631</v>
       </c>
       <c r="T26" t="n">
-        <v>65.14674634071697</v>
+        <v>65.14674634071712</v>
       </c>
       <c r="U26" t="n">
-        <v>94.73295745488009</v>
+        <v>94.73295745488025</v>
       </c>
       <c r="V26" t="n">
-        <v>171.80840031737</v>
+        <v>171.8084003173701</v>
       </c>
       <c r="W26" t="n">
-        <v>193.8052957954052</v>
+        <v>193.8052957954054</v>
       </c>
       <c r="X26" t="n">
-        <v>214.13677792602</v>
+        <v>214.1367779260202</v>
       </c>
       <c r="Y26" t="n">
-        <v>229.9622505460865</v>
+        <v>229.9622505460866</v>
       </c>
     </row>
     <row r="27">
@@ -2634,22 +2634,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>14.30076272225165</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>32.92414610168051</v>
       </c>
       <c r="H27" t="n">
-        <v>45.4513477253054</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>166.4789210744612</v>
+        <v>9.75409986931199</v>
       </c>
       <c r="T27" t="n">
-        <v>197.8437846327415</v>
+        <v>41.11896342759236</v>
       </c>
       <c r="U27" t="n">
         <v>224.648383586099</v>
@@ -2700,7 +2700,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>46.94633021343668</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23.35887028553446</v>
+        <v>23.35887028553461</v>
       </c>
       <c r="C28" t="n">
-        <v>10.61173172605299</v>
+        <v>10.61173172605314</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>11.05271090566751</v>
+        <v>11.05271090566765</v>
       </c>
       <c r="H28" t="n">
-        <v>3.912963810432869</v>
+        <v>3.912963810433011</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.62784438995705</v>
+        <v>11.62784438995719</v>
       </c>
       <c r="S28" t="n">
-        <v>63.67974100553447</v>
+        <v>63.67974100553461</v>
       </c>
       <c r="T28" t="n">
-        <v>71.12885655847768</v>
+        <v>71.12885655847782</v>
       </c>
       <c r="U28" t="n">
-        <v>129.3213369957717</v>
+        <v>129.3213369957718</v>
       </c>
       <c r="V28" t="n">
-        <v>96.21152986178981</v>
+        <v>96.21152986178996</v>
       </c>
       <c r="W28" t="n">
-        <v>129.3677556822662</v>
+        <v>129.3677556822663</v>
       </c>
       <c r="X28" t="n">
-        <v>69.41553872715991</v>
+        <v>69.41553872716005</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.02385266261888</v>
+        <v>62.02385266261902</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>226.9915887862457</v>
+        <v>226.9915887862456</v>
       </c>
       <c r="C29" t="n">
-        <v>210.2602744737933</v>
+        <v>210.2602744737932</v>
       </c>
       <c r="D29" t="n">
-        <v>199.879911549449</v>
+        <v>199.8799115494489</v>
       </c>
       <c r="E29" t="n">
-        <v>226.3932145501381</v>
+        <v>226.393214550138</v>
       </c>
       <c r="F29" t="n">
-        <v>250.5690422753915</v>
+        <v>250.5690422753914</v>
       </c>
       <c r="G29" t="n">
-        <v>257.8801327422443</v>
+        <v>257.8801327422442</v>
       </c>
       <c r="H29" t="n">
-        <v>178.8607006047661</v>
+        <v>178.8607006047677</v>
       </c>
       <c r="I29" t="n">
-        <v>38.86863048867777</v>
+        <v>38.86863048867765</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>43.44755195482617</v>
+        <v>43.44755195482605</v>
       </c>
       <c r="T29" t="n">
-        <v>65.14674634071696</v>
+        <v>65.14674634071686</v>
       </c>
       <c r="U29" t="n">
-        <v>94.73295745488279</v>
+        <v>94.73295745487999</v>
       </c>
       <c r="V29" t="n">
-        <v>171.80840031737</v>
+        <v>171.8084003173699</v>
       </c>
       <c r="W29" t="n">
-        <v>193.8052957954052</v>
+        <v>193.8052957954051</v>
       </c>
       <c r="X29" t="n">
-        <v>214.13677792602</v>
+        <v>214.1367779260199</v>
       </c>
       <c r="Y29" t="n">
-        <v>229.9622505460865</v>
+        <v>229.9622505460864</v>
       </c>
     </row>
     <row r="30">
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>46.14273522328062</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>166.4789210744612</v>
+        <v>9.754099869311734</v>
       </c>
       <c r="T30" t="n">
-        <v>197.8437846327415</v>
+        <v>41.1189634275921</v>
       </c>
       <c r="U30" t="n">
-        <v>67.92356238094969</v>
+        <v>114.0662976042308</v>
       </c>
       <c r="V30" t="n">
-        <v>75.18390983450578</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
         <v>249.98934675</v>
@@ -2937,7 +2937,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>46.94633021343668</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>23.35887028553446</v>
+        <v>23.35887028553435</v>
       </c>
       <c r="C31" t="n">
-        <v>10.61173172605299</v>
+        <v>10.61173172605288</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>11.05271090566751</v>
+        <v>11.05271090566739</v>
       </c>
       <c r="H31" t="n">
-        <v>3.912963810432869</v>
+        <v>3.912963810432755</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>11.62784438995705</v>
+        <v>11.62784438995693</v>
       </c>
       <c r="S31" t="n">
-        <v>63.67974100553447</v>
+        <v>63.67974100553435</v>
       </c>
       <c r="T31" t="n">
-        <v>71.12885655847768</v>
+        <v>71.12885655847757</v>
       </c>
       <c r="U31" t="n">
-        <v>129.3213369957717</v>
+        <v>129.3213369957716</v>
       </c>
       <c r="V31" t="n">
-        <v>96.21152986178981</v>
+        <v>96.2115298617897</v>
       </c>
       <c r="W31" t="n">
-        <v>129.3677556822662</v>
+        <v>129.3677556822661</v>
       </c>
       <c r="X31" t="n">
-        <v>69.41553872715991</v>
+        <v>69.4155387271598</v>
       </c>
       <c r="Y31" t="n">
-        <v>62.02385266261888</v>
+        <v>62.02385266261876</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>218.0109441681296</v>
+        <v>218.0109441681295</v>
       </c>
       <c r="C32" t="n">
-        <v>201.2796298556772</v>
+        <v>201.2796298556771</v>
       </c>
       <c r="D32" t="n">
-        <v>190.8992669313329</v>
+        <v>190.8992669313328</v>
       </c>
       <c r="E32" t="n">
-        <v>217.412569932022</v>
+        <v>217.4125699320219</v>
       </c>
       <c r="F32" t="n">
-        <v>241.5883976572754</v>
+        <v>241.5883976572753</v>
       </c>
       <c r="G32" t="n">
-        <v>248.8994881241282</v>
+        <v>248.8994881241281</v>
       </c>
       <c r="H32" t="n">
-        <v>169.88005598665</v>
+        <v>169.8800559866499</v>
       </c>
       <c r="I32" t="n">
-        <v>29.88798587056166</v>
+        <v>29.88798587056155</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.46690733671005</v>
+        <v>34.46690733670994</v>
       </c>
       <c r="T32" t="n">
-        <v>56.16610172260084</v>
+        <v>56.16610172260073</v>
       </c>
       <c r="U32" t="n">
-        <v>85.75231283676399</v>
+        <v>85.75231283676388</v>
       </c>
       <c r="V32" t="n">
-        <v>162.8277556992539</v>
+        <v>162.8277556992538</v>
       </c>
       <c r="W32" t="n">
-        <v>184.8246511772891</v>
+        <v>184.824651177289</v>
       </c>
       <c r="X32" t="n">
-        <v>205.1561333079039</v>
+        <v>205.1561333079038</v>
       </c>
       <c r="Y32" t="n">
-        <v>220.9816059279703</v>
+        <v>220.9816059279702</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>73.08466907762956</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>73.0846690776293</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0.773455251195732</v>
+        <v>0.7734552511956183</v>
       </c>
       <c r="T33" t="n">
-        <v>32.1383188094761</v>
+        <v>32.13831880947598</v>
       </c>
       <c r="U33" t="n">
-        <v>58.94291776283358</v>
+        <v>224.648383586099</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3174,7 +3174,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>37.96568559532045</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14.37822566741835</v>
+        <v>14.37822566741823</v>
       </c>
       <c r="C34" t="n">
-        <v>1.631087107936878</v>
+        <v>1.631087107936764</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.07206628755139</v>
+        <v>2.072066287551277</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.647199771840931</v>
+        <v>2.647199771840818</v>
       </c>
       <c r="S34" t="n">
-        <v>54.69909638741835</v>
+        <v>54.69909638741824</v>
       </c>
       <c r="T34" t="n">
-        <v>62.14821194036156</v>
+        <v>62.14821194036144</v>
       </c>
       <c r="U34" t="n">
-        <v>120.3406923776556</v>
+        <v>120.3406923776555</v>
       </c>
       <c r="V34" t="n">
-        <v>87.2308852436737</v>
+        <v>87.23088524367358</v>
       </c>
       <c r="W34" t="n">
-        <v>120.3871110641501</v>
+        <v>120.38711106415</v>
       </c>
       <c r="X34" t="n">
-        <v>60.4348941090438</v>
+        <v>60.43489410904368</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.04320804450276</v>
+        <v>53.04320804450265</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>12.57695597598324</v>
+        <v>12.57695597598322</v>
       </c>
       <c r="U35" t="n">
         <v>42.16316709014637</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>81.90162168866219</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.39627852892372</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.4789210744612</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>169.9259108240419</v>
       </c>
       <c r="U36" t="n">
-        <v>83.03773921247215</v>
+        <v>224.648383586099</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3484,10 +3484,10 @@
         <v>43.64173949705608</v>
       </c>
       <c r="W37" t="n">
-        <v>81.7082437548393</v>
+        <v>76.79796531753246</v>
       </c>
       <c r="X37" t="n">
-        <v>16.84574836242618</v>
+        <v>21.75602679973299</v>
       </c>
       <c r="Y37" t="n">
         <v>9.454062297885145</v>
@@ -3506,7 +3506,7 @@
         <v>157.6904841090596</v>
       </c>
       <c r="D38" t="n">
-        <v>147.3101211847153</v>
+        <v>147.3101211847154</v>
       </c>
       <c r="E38" t="n">
         <v>173.8234241854044</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>12.57695597598324</v>
+        <v>12.57695597598328</v>
       </c>
       <c r="U38" t="n">
-        <v>42.16316709014637</v>
+        <v>42.16316709014643</v>
       </c>
       <c r="V38" t="n">
         <v>119.2386099526363</v>
       </c>
       <c r="W38" t="n">
-        <v>141.2355054306715</v>
+        <v>141.2355054306716</v>
       </c>
       <c r="X38" t="n">
-        <v>161.5669875612863</v>
+        <v>161.5669875612864</v>
       </c>
       <c r="Y38" t="n">
-        <v>177.3924601813527</v>
+        <v>177.3924601813528</v>
       </c>
     </row>
     <row r="39">
@@ -3594,13 +3594,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.8895492922891</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.863057631224644</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.39627852892372</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>63.18931035599498</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>15.35377201621596</v>
+        <v>224.648383586099</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3645,7 +3645,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>11.10995064080073</v>
+        <v>11.10995064080079</v>
       </c>
       <c r="T40" t="n">
-        <v>18.55906619374394</v>
+        <v>18.559066193744</v>
       </c>
       <c r="U40" t="n">
-        <v>81.66182506834477</v>
+        <v>81.66182506834444</v>
       </c>
       <c r="V40" t="n">
-        <v>43.64173949705608</v>
+        <v>43.64173949705614</v>
       </c>
       <c r="W40" t="n">
-        <v>76.79796531753246</v>
+        <v>76.79796531753252</v>
       </c>
       <c r="X40" t="n">
-        <v>16.84574836242618</v>
+        <v>16.84574836242624</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.454062297885145</v>
+        <v>9.454062297885201</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>157.6904841090596</v>
       </c>
       <c r="D41" t="n">
-        <v>147.3101211847153</v>
+        <v>147.3101211847154</v>
       </c>
       <c r="E41" t="n">
         <v>173.8234241854044</v>
@@ -3752,7 +3752,7 @@
         <v>197.9992519106578</v>
       </c>
       <c r="G41" t="n">
-        <v>205.3103423775106</v>
+        <v>205.3103423775107</v>
       </c>
       <c r="H41" t="n">
         <v>126.2909102400324</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>12.57695597598324</v>
+        <v>12.57695597598329</v>
       </c>
       <c r="U41" t="n">
-        <v>42.16316709014637</v>
+        <v>42.16316709014642</v>
       </c>
       <c r="V41" t="n">
         <v>119.2386099526363</v>
       </c>
       <c r="W41" t="n">
-        <v>141.2355054306715</v>
+        <v>141.2355054306716</v>
       </c>
       <c r="X41" t="n">
-        <v>161.5669875612863</v>
+        <v>161.5669875612864</v>
       </c>
       <c r="Y41" t="n">
-        <v>177.3924601813527</v>
+        <v>177.3924601813528</v>
       </c>
     </row>
     <row r="42">
@@ -3828,7 +3828,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>83.79720939858467</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.39627852892372</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>78.54308237221092</v>
+        <v>224.648383586099</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>11.10995064080073</v>
+        <v>16.02022907810717</v>
       </c>
       <c r="T43" t="n">
-        <v>18.55906619374394</v>
+        <v>18.559066193744</v>
       </c>
       <c r="U43" t="n">
-        <v>76.75154663103798</v>
+        <v>76.75154663103804</v>
       </c>
       <c r="V43" t="n">
-        <v>43.64173949705608</v>
+        <v>43.64173949705614</v>
       </c>
       <c r="W43" t="n">
-        <v>76.79796531753246</v>
+        <v>76.79796531753252</v>
       </c>
       <c r="X43" t="n">
-        <v>21.75602679973299</v>
+        <v>16.84574836242624</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.454062297885145</v>
+        <v>9.454062297885201</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3977,10 @@
         <v>174.421798421512</v>
       </c>
       <c r="C44" t="n">
-        <v>157.6904841090604</v>
+        <v>157.6904841090596</v>
       </c>
       <c r="D44" t="n">
-        <v>147.3101211847153</v>
+        <v>147.3101211847154</v>
       </c>
       <c r="E44" t="n">
         <v>173.8234241854044</v>
@@ -3989,7 +3989,7 @@
         <v>197.9992519106578</v>
       </c>
       <c r="G44" t="n">
-        <v>205.3103423775106</v>
+        <v>205.3103423775107</v>
       </c>
       <c r="H44" t="n">
         <v>126.2909102400324</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>12.57695597598324</v>
+        <v>12.57695597598329</v>
       </c>
       <c r="U44" t="n">
-        <v>42.16316709014637</v>
+        <v>42.16316709014642</v>
       </c>
       <c r="V44" t="n">
         <v>119.2386099526363</v>
       </c>
       <c r="W44" t="n">
-        <v>141.2355054306715</v>
+        <v>141.2355054306716</v>
       </c>
       <c r="X44" t="n">
-        <v>161.5669875612863</v>
+        <v>161.5669875612864</v>
       </c>
       <c r="Y44" t="n">
-        <v>177.3924601813527</v>
+        <v>177.3924601813528</v>
       </c>
     </row>
     <row r="45">
@@ -4065,7 +4065,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.39627852892372</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.18931035599498</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>83.79720939858477</v>
       </c>
       <c r="U45" t="n">
-        <v>15.35377201621596</v>
+        <v>224.648383586099</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>11.10995064080073</v>
+        <v>16.02022907810717</v>
       </c>
       <c r="T46" t="n">
-        <v>23.46934463105076</v>
+        <v>18.559066193744</v>
       </c>
       <c r="U46" t="n">
-        <v>76.75154663103798</v>
+        <v>76.75154663103804</v>
       </c>
       <c r="V46" t="n">
-        <v>43.64173949705608</v>
+        <v>43.64173949705614</v>
       </c>
       <c r="W46" t="n">
-        <v>76.79796531753246</v>
+        <v>76.79796531753252</v>
       </c>
       <c r="X46" t="n">
-        <v>16.84574836242618</v>
+        <v>16.84574836242624</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.454062297885145</v>
+        <v>9.454062297885201</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>269.1911300271311</v>
+        <v>733.0706198794627</v>
       </c>
       <c r="C2" t="n">
-        <v>269.1911300271311</v>
+        <v>733.0706198794627</v>
       </c>
       <c r="D2" t="n">
-        <v>269.1911300271311</v>
+        <v>733.0706198794627</v>
       </c>
       <c r="E2" t="n">
-        <v>269.1911300271311</v>
+        <v>491.0787234206604</v>
       </c>
       <c r="F2" t="n">
-        <v>261.8235911578979</v>
+        <v>261.8235911578975</v>
       </c>
       <c r="G2" t="n">
-        <v>19.83169469909517</v>
+        <v>19.83169469909514</v>
       </c>
       <c r="H2" t="n">
-        <v>19.83169469909517</v>
+        <v>19.83169469909514</v>
       </c>
       <c r="I2" t="n">
-        <v>19.83169469909517</v>
+        <v>19.83169469909514</v>
       </c>
       <c r="J2" t="n">
-        <v>19.16575819953718</v>
+        <v>19.16575819953714</v>
       </c>
       <c r="K2" t="n">
-        <v>140.4641462616409</v>
+        <v>119.8401960149124</v>
       </c>
       <c r="L2" t="n">
-        <v>342.9146007130045</v>
+        <v>322.2906504662759</v>
       </c>
       <c r="M2" t="n">
-        <v>559.4669081855499</v>
+        <v>559.466908185548</v>
       </c>
       <c r="N2" t="n">
-        <v>788.3183419235194</v>
+        <v>788.3183419235176</v>
       </c>
       <c r="O2" t="n">
-        <v>958.2879099768588</v>
+        <v>958.287909976857</v>
       </c>
       <c r="P2" t="n">
-        <v>958.2879099768588</v>
+        <v>958.287909976857</v>
       </c>
       <c r="Q2" t="n">
-        <v>958.2879099768588</v>
+        <v>958.287909976857</v>
       </c>
       <c r="R2" t="n">
-        <v>958.2879099768588</v>
+        <v>958.287909976857</v>
       </c>
       <c r="S2" t="n">
-        <v>958.2879099768588</v>
+        <v>958.287909976857</v>
       </c>
       <c r="T2" t="n">
-        <v>733.0706198794645</v>
+        <v>733.0706198794627</v>
       </c>
       <c r="U2" t="n">
-        <v>733.0706198794645</v>
+        <v>733.0706198794627</v>
       </c>
       <c r="V2" t="n">
-        <v>733.0706198794645</v>
+        <v>733.0706198794627</v>
       </c>
       <c r="W2" t="n">
-        <v>733.0706198794645</v>
+        <v>733.0706198794627</v>
       </c>
       <c r="X2" t="n">
-        <v>491.0787234206617</v>
+        <v>733.0706198794627</v>
       </c>
       <c r="Y2" t="n">
-        <v>269.1911300271311</v>
+        <v>733.0706198794627</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>662.2500194017477</v>
+        <v>264.152603828472</v>
       </c>
       <c r="C3" t="n">
-        <v>489.4969043235649</v>
+        <v>264.152603828472</v>
       </c>
       <c r="D3" t="n">
-        <v>489.4969043235649</v>
+        <v>264.152603828472</v>
       </c>
       <c r="E3" t="n">
-        <v>331.8873753264196</v>
+        <v>106.5430748313267</v>
       </c>
       <c r="F3" t="n">
-        <v>186.9315853430365</v>
+        <v>106.5430748313267</v>
       </c>
       <c r="G3" t="n">
-        <v>130.744056706742</v>
+        <v>106.5430748313267</v>
       </c>
       <c r="H3" t="n">
-        <v>19.16575819953718</v>
+        <v>106.5430748313267</v>
       </c>
       <c r="I3" t="n">
-        <v>19.16575819953718</v>
+        <v>19.16575819953714</v>
       </c>
       <c r="J3" t="n">
-        <v>26.55906904602208</v>
+        <v>19.16575819953714</v>
       </c>
       <c r="K3" t="n">
-        <v>165.801028104173</v>
+        <v>158.4077172576881</v>
       </c>
       <c r="L3" t="n">
-        <v>402.9772858234456</v>
+        <v>158.4077172576881</v>
       </c>
       <c r="M3" t="n">
-        <v>441.3630144062913</v>
+        <v>285.3649247033158</v>
       </c>
       <c r="N3" t="n">
-        <v>441.3630144062913</v>
+        <v>522.5411824225879</v>
       </c>
       <c r="O3" t="n">
-        <v>678.5392721255639</v>
+        <v>759.71744014186</v>
       </c>
       <c r="P3" t="n">
-        <v>877.1097419605609</v>
+        <v>958.287909976857</v>
       </c>
       <c r="Q3" t="n">
-        <v>958.2879099768588</v>
+        <v>958.287909976857</v>
       </c>
       <c r="R3" t="n">
-        <v>862.6364152686858</v>
+        <v>862.636415268684</v>
       </c>
       <c r="S3" t="n">
-        <v>862.6364152686858</v>
+        <v>691.9681183942957</v>
       </c>
       <c r="T3" t="n">
-        <v>662.2500194017477</v>
+        <v>491.5817225273577</v>
       </c>
       <c r="U3" t="n">
-        <v>662.2500194017477</v>
+        <v>264.6552810453362</v>
       </c>
       <c r="V3" t="n">
-        <v>662.2500194017477</v>
+        <v>264.152603828472</v>
       </c>
       <c r="W3" t="n">
-        <v>662.2500194017477</v>
+        <v>264.152603828472</v>
       </c>
       <c r="X3" t="n">
-        <v>662.2500194017477</v>
+        <v>264.152603828472</v>
       </c>
       <c r="Y3" t="n">
-        <v>662.2500194017477</v>
+        <v>264.152603828472</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.08940437916682</v>
+        <v>199.8860881405556</v>
       </c>
       <c r="C4" t="n">
-        <v>34.08940437916682</v>
+        <v>184.600077626156</v>
       </c>
       <c r="D4" t="n">
-        <v>34.08940437916682</v>
+        <v>34.08940437916679</v>
       </c>
       <c r="E4" t="n">
-        <v>34.08940437916682</v>
+        <v>34.08940437916679</v>
       </c>
       <c r="F4" t="n">
-        <v>34.08940437916682</v>
+        <v>34.08940437916679</v>
       </c>
       <c r="G4" t="n">
-        <v>34.08940437916682</v>
+        <v>34.08940437916679</v>
       </c>
       <c r="H4" t="n">
-        <v>34.08940437916682</v>
+        <v>34.08940437916679</v>
       </c>
       <c r="I4" t="n">
-        <v>34.08940437916682</v>
+        <v>34.08940437916679</v>
       </c>
       <c r="J4" t="n">
-        <v>34.08940437916682</v>
+        <v>34.08940437916679</v>
       </c>
       <c r="K4" t="n">
-        <v>19.16575819953718</v>
+        <v>19.16575819953714</v>
       </c>
       <c r="L4" t="n">
-        <v>56.25227712625637</v>
+        <v>56.25227712625633</v>
       </c>
       <c r="M4" t="n">
-        <v>105.9477110431959</v>
+        <v>105.9477110431958</v>
       </c>
       <c r="N4" t="n">
-        <v>159.6027605111874</v>
+        <v>159.6027605111873</v>
       </c>
       <c r="O4" t="n">
-        <v>193.8252864608587</v>
+        <v>193.8252864608586</v>
       </c>
       <c r="P4" t="n">
-        <v>199.8860881405557</v>
+        <v>199.8860881405556</v>
       </c>
       <c r="Q4" t="n">
-        <v>199.8860881405557</v>
+        <v>199.8860881405556</v>
       </c>
       <c r="R4" t="n">
-        <v>199.8860881405557</v>
+        <v>199.8860881405556</v>
       </c>
       <c r="S4" t="n">
-        <v>199.8860881405557</v>
+        <v>199.8860881405556</v>
       </c>
       <c r="T4" t="n">
-        <v>199.8860881405557</v>
+        <v>199.8860881405556</v>
       </c>
       <c r="U4" t="n">
-        <v>199.8860881405557</v>
+        <v>199.8860881405556</v>
       </c>
       <c r="V4" t="n">
-        <v>199.8860881405557</v>
+        <v>199.8860881405556</v>
       </c>
       <c r="W4" t="n">
-        <v>199.8860881405557</v>
+        <v>199.8860881405556</v>
       </c>
       <c r="X4" t="n">
-        <v>34.08940437916682</v>
+        <v>199.8860881405556</v>
       </c>
       <c r="Y4" t="n">
-        <v>34.08940437916682</v>
+        <v>199.8860881405556</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>525.1262241991186</v>
+        <v>503.8154876166998</v>
       </c>
       <c r="C5" t="n">
-        <v>525.1262241991186</v>
+        <v>503.8154876166998</v>
       </c>
       <c r="D5" t="n">
-        <v>525.1262241991186</v>
+        <v>503.8154876166998</v>
       </c>
       <c r="E5" t="n">
-        <v>525.1262241991186</v>
+        <v>503.8154876166998</v>
       </c>
       <c r="F5" t="n">
-        <v>517.7586853298855</v>
+        <v>261.8235911578975</v>
       </c>
       <c r="G5" t="n">
-        <v>469.1208718327698</v>
+        <v>19.83169469909514</v>
       </c>
       <c r="H5" t="n">
-        <v>227.1289753739679</v>
+        <v>19.83169469909514</v>
       </c>
       <c r="I5" t="n">
-        <v>19.83169469909511</v>
+        <v>19.83169469909514</v>
       </c>
       <c r="J5" t="n">
-        <v>19.16575819953711</v>
+        <v>19.16575819953714</v>
       </c>
       <c r="K5" t="n">
         <v>140.4641462616409</v>
       </c>
       <c r="L5" t="n">
-        <v>342.9146007130044</v>
+        <v>342.9146007130045</v>
       </c>
       <c r="M5" t="n">
-        <v>580.0908584322761</v>
+        <v>559.466908185548</v>
       </c>
       <c r="N5" t="n">
-        <v>808.9422921702457</v>
+        <v>788.3183419235176</v>
       </c>
       <c r="O5" t="n">
-        <v>958.2879099768556</v>
+        <v>958.287909976857</v>
       </c>
       <c r="P5" t="n">
-        <v>958.2879099768556</v>
+        <v>958.287909976857</v>
       </c>
       <c r="Q5" t="n">
-        <v>958.2879099768556</v>
+        <v>958.287909976857</v>
       </c>
       <c r="R5" t="n">
-        <v>958.2879099768556</v>
+        <v>958.287909976857</v>
       </c>
       <c r="S5" t="n">
-        <v>750.3435142965129</v>
+        <v>958.287909976857</v>
       </c>
       <c r="T5" t="n">
-        <v>525.1262241991186</v>
+        <v>958.287909976857</v>
       </c>
       <c r="U5" t="n">
-        <v>525.1262241991186</v>
+        <v>745.8073840755021</v>
       </c>
       <c r="V5" t="n">
-        <v>525.1262241991186</v>
+        <v>745.8073840755021</v>
       </c>
       <c r="W5" t="n">
-        <v>525.1262241991186</v>
+        <v>745.8073840755021</v>
       </c>
       <c r="X5" t="n">
-        <v>525.1262241991186</v>
+        <v>745.8073840755021</v>
       </c>
       <c r="Y5" t="n">
-        <v>525.1262241991186</v>
+        <v>503.8154876166998</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>391.5285634976781</v>
+        <v>355.5185553638269</v>
       </c>
       <c r="C6" t="n">
-        <v>391.5285634976781</v>
+        <v>355.5185553638269</v>
       </c>
       <c r="D6" t="n">
-        <v>243.9402568566219</v>
+        <v>355.5185553638269</v>
       </c>
       <c r="E6" t="n">
-        <v>243.9402568566219</v>
+        <v>355.5185553638269</v>
       </c>
       <c r="F6" t="n">
-        <v>243.9402568566219</v>
+        <v>355.5185553638269</v>
       </c>
       <c r="G6" t="n">
-        <v>106.5430748313267</v>
+        <v>218.1213733385316</v>
       </c>
       <c r="H6" t="n">
         <v>106.5430748313267</v>
       </c>
       <c r="I6" t="n">
-        <v>19.16575819953711</v>
+        <v>19.16575819953714</v>
       </c>
       <c r="J6" t="n">
-        <v>26.55906904602201</v>
+        <v>26.55906904602204</v>
       </c>
       <c r="K6" t="n">
         <v>165.801028104173</v>
       </c>
       <c r="L6" t="n">
-        <v>402.9772858234447</v>
+        <v>402.9772858234451</v>
       </c>
       <c r="M6" t="n">
-        <v>402.9772858234447</v>
+        <v>402.9772858234451</v>
       </c>
       <c r="N6" t="n">
-        <v>441.3630144062889</v>
+        <v>640.1535435427172</v>
       </c>
       <c r="O6" t="n">
-        <v>678.5392721255607</v>
+        <v>678.5392721255621</v>
       </c>
       <c r="P6" t="n">
-        <v>877.1097419605577</v>
+        <v>877.1097419605591</v>
       </c>
       <c r="Q6" t="n">
-        <v>958.2879099768556</v>
+        <v>958.287909976857</v>
       </c>
       <c r="R6" t="n">
-        <v>862.6364152686826</v>
+        <v>862.636415268684</v>
       </c>
       <c r="S6" t="n">
-        <v>862.6364152686826</v>
+        <v>691.9681183942957</v>
       </c>
       <c r="T6" t="n">
-        <v>662.2500194017446</v>
+        <v>491.5817225273577</v>
       </c>
       <c r="U6" t="n">
-        <v>435.3235779197231</v>
+        <v>355.5185553638269</v>
       </c>
       <c r="V6" t="n">
-        <v>435.3235779197231</v>
+        <v>355.5185553638269</v>
       </c>
       <c r="W6" t="n">
-        <v>391.5285634976781</v>
+        <v>355.5185553638269</v>
       </c>
       <c r="X6" t="n">
-        <v>391.5285634976781</v>
+        <v>355.5185553638269</v>
       </c>
       <c r="Y6" t="n">
-        <v>391.5285634976781</v>
+        <v>355.5185553638269</v>
       </c>
     </row>
     <row r="7">
@@ -4708,28 +4708,28 @@
         <v>199.8860881405556</v>
       </c>
       <c r="E7" t="n">
-        <v>51.42687180399082</v>
+        <v>199.8860881405556</v>
       </c>
       <c r="F7" t="n">
-        <v>34.08940437916676</v>
+        <v>199.8860881405556</v>
       </c>
       <c r="G7" t="n">
-        <v>34.08940437916676</v>
+        <v>199.8860881405556</v>
       </c>
       <c r="H7" t="n">
-        <v>34.08940437916676</v>
+        <v>174.477421631258</v>
       </c>
       <c r="I7" t="n">
-        <v>34.08940437916676</v>
+        <v>19.16575819953714</v>
       </c>
       <c r="J7" t="n">
-        <v>34.08940437916676</v>
+        <v>19.16575819953714</v>
       </c>
       <c r="K7" t="n">
-        <v>19.16575819953711</v>
+        <v>19.16575819953714</v>
       </c>
       <c r="L7" t="n">
-        <v>56.2522771262563</v>
+        <v>56.25227712625633</v>
       </c>
       <c r="M7" t="n">
         <v>105.9477110431958</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>317.8092375688085</v>
+        <v>599.0896951955497</v>
       </c>
       <c r="C8" t="n">
-        <v>317.8092375688085</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="D8" t="n">
-        <v>317.8092375688085</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="E8" t="n">
         <v>44.98099349534252</v>
@@ -4832,22 +4832,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>871.9179392690156</v>
+        <v>876.1440460456532</v>
       </c>
       <c r="U8" t="n">
-        <v>871.9179392690156</v>
+        <v>876.1440460456532</v>
       </c>
       <c r="V8" t="n">
-        <v>871.9179392690156</v>
+        <v>876.1440460456532</v>
       </c>
       <c r="W8" t="n">
-        <v>871.9179392690156</v>
+        <v>876.1440460456532</v>
       </c>
       <c r="X8" t="n">
-        <v>871.9179392690156</v>
+        <v>876.1440460456532</v>
       </c>
       <c r="Y8" t="n">
-        <v>594.8635884189121</v>
+        <v>876.1440460456532</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>298.2466964140406</v>
+        <v>246.717203244413</v>
       </c>
       <c r="C9" t="n">
-        <v>298.2466964140406</v>
+        <v>246.717203244413</v>
       </c>
       <c r="D9" t="n">
-        <v>298.2466964140406</v>
+        <v>246.717203244413</v>
       </c>
       <c r="E9" t="n">
-        <v>140.6371674168953</v>
+        <v>246.717203244413</v>
       </c>
       <c r="F9" t="n">
-        <v>21.9427045873282</v>
+        <v>246.717203244413</v>
       </c>
       <c r="G9" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H9" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M9" t="n">
-        <v>688.1965482020685</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N9" t="n">
-        <v>829.2556103890893</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O9" t="n">
-        <v>1097.13522936641</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P9" t="n">
         <v>1097.13522936641</v>
@@ -4908,25 +4908,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>926.4669324920217</v>
+        <v>960.4093798675004</v>
       </c>
       <c r="U9" t="n">
-        <v>699.5404910100002</v>
+        <v>733.482938385479</v>
       </c>
       <c r="V9" t="n">
-        <v>465.2892475356011</v>
+        <v>499.2316949110798</v>
       </c>
       <c r="W9" t="n">
-        <v>465.2892475356011</v>
+        <v>246.717203244413</v>
       </c>
       <c r="X9" t="n">
-        <v>465.2892475356011</v>
+        <v>246.717203244413</v>
       </c>
       <c r="Y9" t="n">
-        <v>465.2892475356011</v>
+        <v>246.717203244413</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I10" t="n">
-        <v>36.86635076695784</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="J10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -4996,16 +4996,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>688.9829444897232</v>
+        <v>917.0459893809892</v>
       </c>
       <c r="C11" t="n">
-        <v>688.9829444897232</v>
+        <v>675.4456263874547</v>
       </c>
       <c r="D11" t="n">
-        <v>688.9829444897232</v>
+        <v>675.4456263874547</v>
       </c>
       <c r="E11" t="n">
-        <v>675.4456263874556</v>
+        <v>675.4456263874547</v>
       </c>
       <c r="F11" t="n">
-        <v>393.1293363215993</v>
+        <v>393.1293363215987</v>
       </c>
       <c r="G11" t="n">
-        <v>103.428106390235</v>
+        <v>103.4281063902348</v>
       </c>
       <c r="H11" t="n">
-        <v>103.428106390235</v>
+        <v>103.4281063902348</v>
       </c>
       <c r="I11" t="n">
         <v>34.95061610893816</v>
       </c>
       <c r="J11" t="n">
-        <v>155.6846879693182</v>
+        <v>181.8110714476941</v>
       </c>
       <c r="K11" t="n">
-        <v>308.4422605426835</v>
+        <v>434.964989494873</v>
       </c>
       <c r="L11" t="n">
-        <v>549.9206151916504</v>
+        <v>676.4433441438399</v>
       </c>
       <c r="M11" t="n">
-        <v>833.8241064943809</v>
+        <v>960.3468354465704</v>
       </c>
       <c r="N11" t="n">
-        <v>1106.804278106082</v>
+        <v>1233.327007058271</v>
       </c>
       <c r="O11" t="n">
-        <v>1318.443361989904</v>
+        <v>1444.966090942094</v>
       </c>
       <c r="P11" t="n">
         <v>1588.656359425675</v>
       </c>
       <c r="Q11" t="n">
-        <v>1745.905094257165</v>
+        <v>1745.905094257164</v>
       </c>
       <c r="R11" t="n">
         <v>1747.530805446908</v>
       </c>
       <c r="S11" t="n">
-        <v>1674.428141967481</v>
+        <v>1747.530805446908</v>
       </c>
       <c r="T11" t="n">
-        <v>1579.407100320488</v>
+        <v>1652.509763799915</v>
       </c>
       <c r="U11" t="n">
-        <v>1454.500996942017</v>
+        <v>1652.509763799915</v>
       </c>
       <c r="V11" t="n">
-        <v>1454.500996942017</v>
+        <v>1449.74967773206</v>
       </c>
       <c r="W11" t="n">
-        <v>1454.500996942017</v>
+        <v>1437.048018786993</v>
       </c>
       <c r="X11" t="n">
-        <v>1208.984973895728</v>
+        <v>1437.048018786993</v>
       </c>
       <c r="Y11" t="n">
-        <v>947.4836249705836</v>
+        <v>1175.546669861849</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>490.5734800763032</v>
+        <v>536.9362221234553</v>
       </c>
       <c r="C12" t="n">
-        <v>446.9120178419014</v>
+        <v>493.2747598890538</v>
       </c>
       <c r="D12" t="n">
-        <v>428.4153640446263</v>
+        <v>345.6864532479976</v>
       </c>
       <c r="E12" t="n">
-        <v>399.897487891262</v>
+        <v>188.0769242508523</v>
       </c>
       <c r="F12" t="n">
-        <v>254.9416979078789</v>
+        <v>43.12113426746915</v>
       </c>
       <c r="G12" t="n">
-        <v>117.6795269055666</v>
+        <v>34.95061610893816</v>
       </c>
       <c r="H12" t="n">
-        <v>117.6795269055666</v>
+        <v>34.95061610893816</v>
       </c>
       <c r="I12" t="n">
         <v>34.95061610893816</v>
@@ -5121,22 +5121,22 @@
         <v>34.95061610893816</v>
       </c>
       <c r="K12" t="n">
-        <v>170.5287662975313</v>
+        <v>72.45951699736833</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3375753490471</v>
+        <v>349.2683260488841</v>
       </c>
       <c r="M12" t="n">
-        <v>823.1605933588469</v>
+        <v>725.0913440586839</v>
       </c>
       <c r="N12" t="n">
-        <v>1224.329260362506</v>
+        <v>1126.260011062343</v>
       </c>
       <c r="O12" t="n">
-        <v>1523.692197316937</v>
+        <v>1425.622948016774</v>
       </c>
       <c r="P12" t="n">
-        <v>1747.530805446908</v>
+        <v>1649.461556146745</v>
       </c>
       <c r="Q12" t="n">
         <v>1747.530805446908</v>
@@ -5145,25 +5145,25 @@
         <v>1747.530805446908</v>
       </c>
       <c r="S12" t="n">
-        <v>1708.461931952849</v>
+        <v>1642.484650103127</v>
       </c>
       <c r="T12" t="n">
-        <v>1637.711378096891</v>
+        <v>1571.734096247169</v>
       </c>
       <c r="U12" t="n">
-        <v>1539.885471762794</v>
+        <v>1473.908189913072</v>
       </c>
       <c r="V12" t="n">
-        <v>1322.385857235302</v>
+        <v>1239.656946438673</v>
       </c>
       <c r="W12" t="n">
-        <v>1069.871365568636</v>
+        <v>1116.234107615788</v>
       </c>
       <c r="X12" t="n">
-        <v>863.3444669742132</v>
+        <v>909.7072090213653</v>
       </c>
       <c r="Y12" t="n">
-        <v>657.6160311978637</v>
+        <v>703.9787732450158</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>230.5815459872532</v>
+        <v>230.5815459872579</v>
       </c>
       <c r="C13" t="n">
-        <v>190.6463776884056</v>
+        <v>190.6463776884105</v>
       </c>
       <c r="D13" t="n">
-        <v>169.2273572851974</v>
+        <v>169.2273572852025</v>
       </c>
       <c r="E13" t="n">
-        <v>149.8597937924133</v>
+        <v>149.859793792419</v>
       </c>
       <c r="F13" t="n">
-        <v>131.3160714747756</v>
+        <v>131.3160714747748</v>
       </c>
       <c r="G13" t="n">
-        <v>90.93546966116588</v>
+        <v>90.93546966116534</v>
       </c>
       <c r="H13" t="n">
-        <v>57.7667336003184</v>
+        <v>57.76673360031813</v>
       </c>
       <c r="I13" t="n">
         <v>34.95061610893816</v>
       </c>
       <c r="J13" t="n">
-        <v>81.36608153527681</v>
+        <v>81.36608153527703</v>
       </c>
       <c r="K13" t="n">
-        <v>206.1509202216871</v>
+        <v>206.1509202216876</v>
       </c>
       <c r="L13" t="n">
-        <v>386.2533631047928</v>
+        <v>386.2533631047936</v>
       </c>
       <c r="M13" t="n">
-        <v>579.8612875892678</v>
+        <v>579.8612875892688</v>
       </c>
       <c r="N13" t="n">
-        <v>777.0153379616104</v>
+        <v>777.0153379616116</v>
       </c>
       <c r="O13" t="n">
-        <v>953.4409277005299</v>
+        <v>953.4409277005315</v>
       </c>
       <c r="P13" t="n">
-        <v>1099.44169364707</v>
+        <v>1099.441693647071</v>
       </c>
       <c r="Q13" t="n">
-        <v>1156.290727984592</v>
+        <v>1156.290727984594</v>
       </c>
       <c r="R13" t="n">
-        <v>1115.329183257558</v>
+        <v>1115.329183257561</v>
       </c>
       <c r="S13" t="n">
-        <v>1021.789965181457</v>
+        <v>1021.789965181459</v>
       </c>
       <c r="T13" t="n">
-        <v>920.7263879609682</v>
+        <v>920.7263879609709</v>
       </c>
       <c r="U13" t="n">
-        <v>760.8825274704855</v>
+        <v>760.8825274704889</v>
       </c>
       <c r="V13" t="n">
-        <v>634.4829166102875</v>
+        <v>634.4829166102912</v>
       </c>
       <c r="W13" t="n">
-        <v>474.5921685576892</v>
+        <v>474.5921685576932</v>
       </c>
       <c r="X13" t="n">
-        <v>375.2592154092387</v>
+        <v>375.2592154092429</v>
       </c>
       <c r="Y13" t="n">
-        <v>283.3926118209306</v>
+        <v>283.392611820935</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>950.4842934148676</v>
+        <v>747.7242073470134</v>
       </c>
       <c r="C14" t="n">
-        <v>708.8839304213332</v>
+        <v>747.7242073470134</v>
       </c>
       <c r="D14" t="n">
-        <v>708.8839304213332</v>
+        <v>516.6090594285738</v>
       </c>
       <c r="E14" t="n">
-        <v>450.9876683607833</v>
+        <v>516.6090594285738</v>
       </c>
       <c r="F14" t="n">
-        <v>168.6713782949272</v>
+        <v>516.6090594285738</v>
       </c>
       <c r="G14" t="n">
-        <v>34.95061610893816</v>
+        <v>313.3117281019242</v>
       </c>
       <c r="H14" t="n">
-        <v>34.95061610893816</v>
+        <v>103.4281063902351</v>
       </c>
       <c r="I14" t="n">
         <v>34.95061610893816</v>
       </c>
       <c r="J14" t="n">
-        <v>55.28834249550403</v>
+        <v>55.28834249550411</v>
       </c>
       <c r="K14" t="n">
-        <v>208.0459150688691</v>
+        <v>208.0459150688693</v>
       </c>
       <c r="L14" t="n">
-        <v>449.5242697178359</v>
+        <v>449.5242697178362</v>
       </c>
       <c r="M14" t="n">
-        <v>733.4277610205661</v>
+        <v>733.4277610205667</v>
       </c>
       <c r="N14" t="n">
-        <v>1006.407932632267</v>
+        <v>1006.407932632268</v>
       </c>
       <c r="O14" t="n">
-        <v>1318.443361989905</v>
+        <v>1318.443361989904</v>
       </c>
       <c r="P14" t="n">
         <v>1588.656359425675</v>
@@ -5312,16 +5312,16 @@
         <v>1454.500996942017</v>
       </c>
       <c r="V14" t="n">
-        <v>1454.500996942017</v>
+        <v>1251.740910874162</v>
       </c>
       <c r="W14" t="n">
-        <v>1454.500996942017</v>
+        <v>1251.740910874162</v>
       </c>
       <c r="X14" t="n">
-        <v>1208.984973895728</v>
+        <v>1006.224887827873</v>
       </c>
       <c r="Y14" t="n">
-        <v>1208.984973895728</v>
+        <v>1006.224887827873</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>795.1195278110179</v>
+        <v>732.0051568169579</v>
       </c>
       <c r="C15" t="n">
-        <v>622.366412732835</v>
+        <v>559.252041738775</v>
       </c>
       <c r="D15" t="n">
-        <v>474.7781060917789</v>
+        <v>411.6637350977189</v>
       </c>
       <c r="E15" t="n">
-        <v>317.1685770946336</v>
+        <v>254.0542061005736</v>
       </c>
       <c r="F15" t="n">
-        <v>172.2127871112504</v>
+        <v>109.0984161171904</v>
       </c>
       <c r="G15" t="n">
-        <v>34.95061610893816</v>
+        <v>100.9278979586592</v>
       </c>
       <c r="H15" t="n">
-        <v>34.95061610893816</v>
+        <v>100.9278979586592</v>
       </c>
       <c r="I15" t="n">
         <v>34.95061610893816</v>
@@ -5358,22 +5358,22 @@
         <v>34.95061610893816</v>
       </c>
       <c r="K15" t="n">
-        <v>72.45951699736906</v>
+        <v>170.5287662975313</v>
       </c>
       <c r="L15" t="n">
-        <v>349.2683260488848</v>
+        <v>447.3375753490471</v>
       </c>
       <c r="M15" t="n">
-        <v>725.0913440586844</v>
+        <v>823.1605933588469</v>
       </c>
       <c r="N15" t="n">
-        <v>1126.260011062343</v>
+        <v>1224.329260362506</v>
       </c>
       <c r="O15" t="n">
-        <v>1425.622948016774</v>
+        <v>1523.692197316937</v>
       </c>
       <c r="P15" t="n">
-        <v>1649.461556146745</v>
+        <v>1747.530805446908</v>
       </c>
       <c r="Q15" t="n">
         <v>1747.530805446908</v>
@@ -5382,25 +5382,25 @@
         <v>1747.530805446908</v>
       </c>
       <c r="S15" t="n">
-        <v>1579.370279109068</v>
+        <v>1708.461931952849</v>
       </c>
       <c r="T15" t="n">
-        <v>1508.61972525311</v>
+        <v>1637.711378096891</v>
       </c>
       <c r="U15" t="n">
-        <v>1344.816537069292</v>
+        <v>1410.793818919013</v>
       </c>
       <c r="V15" t="n">
-        <v>1239.656946438674</v>
+        <v>1305.634228288395</v>
       </c>
       <c r="W15" t="n">
-        <v>1116.234107615788</v>
+        <v>1182.211389465509</v>
       </c>
       <c r="X15" t="n">
-        <v>1038.798861865147</v>
+        <v>1104.776143714868</v>
       </c>
       <c r="Y15" t="n">
-        <v>962.1620789325783</v>
+        <v>899.0477079385183</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>230.5815459872527</v>
+        <v>230.5815459872529</v>
       </c>
       <c r="C16" t="n">
-        <v>190.6463776884051</v>
+        <v>190.6463776884052</v>
       </c>
       <c r="D16" t="n">
-        <v>169.2273572851968</v>
+        <v>169.227357285197</v>
       </c>
       <c r="E16" t="n">
-        <v>149.859793792413</v>
+        <v>149.8597937924131</v>
       </c>
       <c r="F16" t="n">
-        <v>131.3160714747754</v>
+        <v>131.3160714747752</v>
       </c>
       <c r="G16" t="n">
-        <v>90.93546966116574</v>
+        <v>90.93546966116591</v>
       </c>
       <c r="H16" t="n">
-        <v>57.76673360031825</v>
+        <v>57.7667336003184</v>
       </c>
       <c r="I16" t="n">
         <v>34.95061610893816</v>
       </c>
       <c r="J16" t="n">
-        <v>81.36608153527683</v>
+        <v>81.36608153527678</v>
       </c>
       <c r="K16" t="n">
-        <v>206.1509202216871</v>
+        <v>206.1509202216874</v>
       </c>
       <c r="L16" t="n">
-        <v>386.2533631047928</v>
+        <v>386.2533631047932</v>
       </c>
       <c r="M16" t="n">
-        <v>579.8612875892679</v>
+        <v>579.8612875892682</v>
       </c>
       <c r="N16" t="n">
-        <v>777.0153379616104</v>
+        <v>777.0153379616102</v>
       </c>
       <c r="O16" t="n">
-        <v>953.4409277005298</v>
+        <v>953.4409277005296</v>
       </c>
       <c r="P16" t="n">
         <v>1099.441693647069</v>
@@ -5461,25 +5461,25 @@
         <v>1115.329183257558</v>
       </c>
       <c r="S16" t="n">
-        <v>1021.789965181456</v>
+        <v>1021.789965181457</v>
       </c>
       <c r="T16" t="n">
-        <v>920.7263879609677</v>
+        <v>920.7263879609679</v>
       </c>
       <c r="U16" t="n">
-        <v>760.882527470485</v>
+        <v>760.8825274704853</v>
       </c>
       <c r="V16" t="n">
-        <v>634.482916610287</v>
+        <v>634.4829166102874</v>
       </c>
       <c r="W16" t="n">
-        <v>474.5921685576888</v>
+        <v>474.592168557689</v>
       </c>
       <c r="X16" t="n">
-        <v>375.2592154092382</v>
+        <v>375.2592154092384</v>
       </c>
       <c r="Y16" t="n">
-        <v>283.3926118209301</v>
+        <v>283.3926118209303</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1053.561256520433</v>
+        <v>923.2696654089226</v>
       </c>
       <c r="C17" t="n">
-        <v>894.2779392385548</v>
+        <v>763.9863481270443</v>
       </c>
       <c r="D17" t="n">
-        <v>745.4798370317717</v>
+        <v>615.1882459202611</v>
       </c>
       <c r="E17" t="n">
-        <v>569.9006206828783</v>
+        <v>439.6090295713678</v>
       </c>
       <c r="F17" t="n">
-        <v>369.9013763286785</v>
+        <v>239.609785217168</v>
       </c>
       <c r="G17" t="n">
         <v>162.5171921089709</v>
@@ -5510,28 +5510,28 @@
         <v>34.95061610893816</v>
       </c>
       <c r="I17" t="n">
-        <v>34.95061610893816</v>
+        <v>48.51476438623357</v>
       </c>
       <c r="J17" t="n">
-        <v>111.8185278917106</v>
+        <v>276.0541562269838</v>
       </c>
       <c r="K17" t="n">
-        <v>264.5761004650758</v>
+        <v>428.811728800349</v>
       </c>
       <c r="L17" t="n">
-        <v>506.0544551140428</v>
+        <v>670.2900834493159</v>
       </c>
       <c r="M17" t="n">
-        <v>789.9579464167732</v>
+        <v>954.1935747520464</v>
       </c>
       <c r="N17" t="n">
-        <v>1062.938118028474</v>
+        <v>1227.173746363747</v>
       </c>
       <c r="O17" t="n">
-        <v>1274.577201912297</v>
+        <v>1438.81283024757</v>
       </c>
       <c r="P17" t="n">
-        <v>1625.469135850062</v>
+        <v>1582.503098731151</v>
       </c>
       <c r="Q17" t="n">
         <v>1656.195141729362</v>
@@ -5543,22 +5543,22 @@
         <v>1747.530805446908</v>
       </c>
       <c r="T17" t="n">
-        <v>1734.826809511571</v>
+        <v>1747.530805446908</v>
       </c>
       <c r="U17" t="n">
-        <v>1692.237751844757</v>
+        <v>1704.941747780093</v>
       </c>
       <c r="V17" t="n">
-        <v>1571.794711488558</v>
+        <v>1584.498707423895</v>
       </c>
       <c r="W17" t="n">
-        <v>1429.13258479091</v>
+        <v>1441.836580726247</v>
       </c>
       <c r="X17" t="n">
-        <v>1265.933607456278</v>
+        <v>1278.637603391614</v>
       </c>
       <c r="Y17" t="n">
-        <v>1229.744891289637</v>
+        <v>1099.453300178126</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>578.689355980035</v>
+        <v>665.9583241910691</v>
       </c>
       <c r="C18" t="n">
-        <v>405.9362409018522</v>
+        <v>493.2052091128863</v>
       </c>
       <c r="D18" t="n">
-        <v>258.347934260796</v>
+        <v>345.6169024718301</v>
       </c>
       <c r="E18" t="n">
-        <v>100.7384052636507</v>
+        <v>188.0073734746848</v>
       </c>
       <c r="F18" t="n">
-        <v>34.95061610893816</v>
+        <v>43.0515834913017</v>
       </c>
       <c r="G18" t="n">
-        <v>34.95061610893816</v>
+        <v>43.0515834913017</v>
       </c>
       <c r="H18" t="n">
-        <v>34.95061610893816</v>
+        <v>43.0515834913017</v>
       </c>
       <c r="I18" t="n">
         <v>34.95061610893816</v>
@@ -5616,28 +5616,28 @@
         <v>1747.530805446908</v>
       </c>
       <c r="R18" t="n">
-        <v>1660.261837235874</v>
+        <v>1747.530805446908</v>
       </c>
       <c r="S18" t="n">
-        <v>1660.261837235874</v>
+        <v>1747.530805446908</v>
       </c>
       <c r="T18" t="n">
-        <v>1660.261837235874</v>
+        <v>1747.530805446908</v>
       </c>
       <c r="U18" t="n">
-        <v>1644.752976613433</v>
+        <v>1520.61324626903</v>
       </c>
       <c r="V18" t="n">
-        <v>1410.501733139034</v>
+        <v>1286.362002794631</v>
       </c>
       <c r="W18" t="n">
-        <v>1157.987241472367</v>
+        <v>1245.256209683401</v>
       </c>
       <c r="X18" t="n">
-        <v>951.460342877945</v>
+        <v>1038.729311088979</v>
       </c>
       <c r="Y18" t="n">
-        <v>745.7319071015954</v>
+        <v>833.0008753126295</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.95061610893816</v>
+        <v>36.72379258662355</v>
       </c>
       <c r="C19" t="n">
-        <v>34.95061610893816</v>
+        <v>36.72379258662355</v>
       </c>
       <c r="D19" t="n">
-        <v>34.95061610893816</v>
+        <v>36.72379258662355</v>
       </c>
       <c r="E19" t="n">
-        <v>34.95061610893816</v>
+        <v>36.72379258662355</v>
       </c>
       <c r="F19" t="n">
-        <v>34.95061610893816</v>
+        <v>36.72379258662355</v>
       </c>
       <c r="G19" t="n">
-        <v>34.95061610893816</v>
+        <v>36.72379258662355</v>
       </c>
       <c r="H19" t="n">
-        <v>34.95061610893816</v>
+        <v>36.72379258662355</v>
       </c>
       <c r="I19" t="n">
-        <v>34.95061610893816</v>
+        <v>36.72379258662355</v>
       </c>
       <c r="J19" t="n">
-        <v>34.95061610893816</v>
+        <v>36.72379258662355</v>
       </c>
       <c r="K19" t="n">
         <v>34.95061610893816</v>
@@ -5698,25 +5698,25 @@
         <v>295.6277447733718</v>
       </c>
       <c r="S19" t="n">
-        <v>284.4055724089267</v>
+        <v>281.2188716772112</v>
       </c>
       <c r="T19" t="n">
-        <v>265.6590409000944</v>
+        <v>262.4723401683789</v>
       </c>
       <c r="U19" t="n">
-        <v>188.1322261212682</v>
+        <v>184.9455253895527</v>
       </c>
       <c r="V19" t="n">
-        <v>144.0496609727267</v>
+        <v>140.8629602410112</v>
       </c>
       <c r="W19" t="n">
-        <v>66.47595863178478</v>
+        <v>63.28925790006933</v>
       </c>
       <c r="X19" t="n">
-        <v>44.50017398558982</v>
+        <v>46.27335046327521</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.95061610893816</v>
+        <v>36.72379258662355</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>910.5656694735864</v>
+        <v>910.5656694735865</v>
       </c>
       <c r="C20" t="n">
-        <v>751.282352191708</v>
+        <v>751.2823521917078</v>
       </c>
       <c r="D20" t="n">
-        <v>602.4842499849249</v>
+        <v>602.4842499849246</v>
       </c>
       <c r="E20" t="n">
-        <v>569.9006206828783</v>
+        <v>426.9050336360314</v>
       </c>
       <c r="F20" t="n">
-        <v>369.9013763286785</v>
+        <v>226.9057892818318</v>
       </c>
       <c r="G20" t="n">
-        <v>162.5171921089709</v>
+        <v>34.95061610893816</v>
       </c>
       <c r="H20" t="n">
         <v>34.95061610893816</v>
@@ -5750,16 +5750,16 @@
         <v>48.51476438623357</v>
       </c>
       <c r="J20" t="n">
-        <v>68.85249077279953</v>
+        <v>276.0541562269838</v>
       </c>
       <c r="K20" t="n">
-        <v>221.6100633461647</v>
+        <v>428.811728800349</v>
       </c>
       <c r="L20" t="n">
-        <v>463.0884179951317</v>
+        <v>713.2561205682272</v>
       </c>
       <c r="M20" t="n">
-        <v>837.6259091345487</v>
+        <v>997.1596118709576</v>
       </c>
       <c r="N20" t="n">
         <v>1270.139783482658</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>795.1195278110179</v>
+        <v>657.8573568087056</v>
       </c>
       <c r="C21" t="n">
-        <v>622.366412732835</v>
+        <v>485.1042417305227</v>
       </c>
       <c r="D21" t="n">
-        <v>474.7781060917789</v>
+        <v>337.5159350894666</v>
       </c>
       <c r="E21" t="n">
-        <v>317.1685770946336</v>
+        <v>179.9064060923213</v>
       </c>
       <c r="F21" t="n">
-        <v>172.2127871112504</v>
+        <v>34.95061610893816</v>
       </c>
       <c r="G21" t="n">
         <v>34.95061610893816</v>
@@ -5832,49 +5832,49 @@
         <v>34.95061610893816</v>
       </c>
       <c r="K21" t="n">
-        <v>195.5600483538695</v>
+        <v>72.45951699736833</v>
       </c>
       <c r="L21" t="n">
-        <v>472.3688574053854</v>
+        <v>349.2683260488841</v>
       </c>
       <c r="M21" t="n">
-        <v>823.1605933588469</v>
+        <v>725.0913440586839</v>
       </c>
       <c r="N21" t="n">
-        <v>1224.329260362506</v>
+        <v>1126.260011062343</v>
       </c>
       <c r="O21" t="n">
-        <v>1523.692197316937</v>
+        <v>1425.622948016774</v>
       </c>
       <c r="P21" t="n">
-        <v>1747.530805446908</v>
+        <v>1649.461556146745</v>
       </c>
       <c r="Q21" t="n">
         <v>1747.530805446908</v>
       </c>
       <c r="R21" t="n">
-        <v>1660.261837235874</v>
+        <v>1747.530805446908</v>
       </c>
       <c r="S21" t="n">
-        <v>1492.101310898034</v>
+        <v>1747.530805446908</v>
       </c>
       <c r="T21" t="n">
-        <v>1492.101310898034</v>
+        <v>1747.530805446908</v>
       </c>
       <c r="U21" t="n">
-        <v>1476.592450275594</v>
+        <v>1723.920977442104</v>
       </c>
       <c r="V21" t="n">
-        <v>1453.749905356632</v>
+        <v>1489.669733967705</v>
       </c>
       <c r="W21" t="n">
-        <v>1374.41741330335</v>
+        <v>1237.155242301038</v>
       </c>
       <c r="X21" t="n">
-        <v>1167.890514708928</v>
+        <v>1030.628343706616</v>
       </c>
       <c r="Y21" t="n">
-        <v>962.1620789325783</v>
+        <v>824.8999079302661</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.72379258662355</v>
+        <v>39.91049331833899</v>
       </c>
       <c r="C22" t="n">
-        <v>36.72379258662355</v>
+        <v>39.91049331833899</v>
       </c>
       <c r="D22" t="n">
-        <v>36.72379258662355</v>
+        <v>39.91049331833899</v>
       </c>
       <c r="E22" t="n">
-        <v>36.72379258662355</v>
+        <v>39.91049331833899</v>
       </c>
       <c r="F22" t="n">
-        <v>36.72379258662355</v>
+        <v>39.91049331833899</v>
       </c>
       <c r="G22" t="n">
-        <v>36.72379258662355</v>
+        <v>39.91049331833899</v>
       </c>
       <c r="H22" t="n">
-        <v>36.72379258662355</v>
+        <v>39.91049331833899</v>
       </c>
       <c r="I22" t="n">
-        <v>36.72379258662355</v>
+        <v>39.91049331833899</v>
       </c>
       <c r="J22" t="n">
         <v>36.72379258662355</v>
@@ -5935,25 +5935,25 @@
         <v>295.6277447733718</v>
       </c>
       <c r="S22" t="n">
-        <v>281.2188716772112</v>
+        <v>284.4055724089267</v>
       </c>
       <c r="T22" t="n">
-        <v>262.4723401683789</v>
+        <v>265.6590409000944</v>
       </c>
       <c r="U22" t="n">
-        <v>184.9455253895527</v>
+        <v>188.1322261212682</v>
       </c>
       <c r="V22" t="n">
-        <v>140.8629602410112</v>
+        <v>144.0496609727267</v>
       </c>
       <c r="W22" t="n">
-        <v>63.28925790006933</v>
+        <v>66.47595863178478</v>
       </c>
       <c r="X22" t="n">
-        <v>46.27335046327521</v>
+        <v>49.46005119499065</v>
       </c>
       <c r="Y22" t="n">
-        <v>36.72379258662355</v>
+        <v>39.91049331833899</v>
       </c>
     </row>
     <row r="23">
@@ -5963,58 +5963,58 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1056.479533807104</v>
+        <v>1056.479533807103</v>
       </c>
       <c r="C23" t="n">
-        <v>897.1962165252255</v>
+        <v>897.1962165252251</v>
       </c>
       <c r="D23" t="n">
-        <v>748.3981143184424</v>
+        <v>748.3981143184419</v>
       </c>
       <c r="E23" t="n">
-        <v>572.818897969549</v>
+        <v>572.8188979695485</v>
       </c>
       <c r="F23" t="n">
-        <v>372.8196536153491</v>
+        <v>372.8196536153488</v>
       </c>
       <c r="G23" t="n">
         <v>165.4354693956412</v>
       </c>
       <c r="H23" t="n">
-        <v>37.86889339560851</v>
+        <v>37.86889339560849</v>
       </c>
       <c r="I23" t="n">
-        <v>51.43304167290391</v>
+        <v>51.4330416729039</v>
       </c>
       <c r="J23" t="n">
-        <v>71.77076805946987</v>
+        <v>278.9724335136541</v>
       </c>
       <c r="K23" t="n">
-        <v>224.5283406328351</v>
+        <v>431.7300060870193</v>
       </c>
       <c r="L23" t="n">
-        <v>466.0066952818021</v>
+        <v>673.2083607359863</v>
       </c>
       <c r="M23" t="n">
-        <v>749.9101865845325</v>
+        <v>957.1118520387167</v>
       </c>
       <c r="N23" t="n">
-        <v>1208.851982361992</v>
+        <v>1230.092023650418</v>
       </c>
       <c r="O23" t="n">
-        <v>1627.692731699998</v>
+        <v>1441.73110753424</v>
       </c>
       <c r="P23" t="n">
         <v>1771.383000183579</v>
       </c>
       <c r="Q23" t="n">
-        <v>1802.109006062879</v>
+        <v>1802.109006062878</v>
       </c>
       <c r="R23" t="n">
-        <v>1884.413653754617</v>
+        <v>1884.413653754616</v>
       </c>
       <c r="S23" t="n">
-        <v>1893.444669780425</v>
+        <v>1893.444669780424</v>
       </c>
       <c r="T23" t="n">
         <v>1880.740673845088</v>
@@ -6023,16 +6023,16 @@
         <v>1838.151616178274</v>
       </c>
       <c r="V23" t="n">
-        <v>1717.708575822076</v>
+        <v>1717.708575822075</v>
       </c>
       <c r="W23" t="n">
-        <v>1575.046449124428</v>
+        <v>1575.046449124427</v>
       </c>
       <c r="X23" t="n">
-        <v>1411.847471789796</v>
+        <v>1411.847471789795</v>
       </c>
       <c r="Y23" t="n">
-        <v>1232.663168576308</v>
+        <v>1232.663168576307</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>598.5487549086213</v>
+        <v>660.7756340953758</v>
       </c>
       <c r="C24" t="n">
-        <v>425.7956398304385</v>
+        <v>488.0225190171931</v>
       </c>
       <c r="D24" t="n">
-        <v>278.2073331893823</v>
+        <v>340.4342123761369</v>
       </c>
       <c r="E24" t="n">
-        <v>120.597804192237</v>
+        <v>182.8246833789916</v>
       </c>
       <c r="F24" t="n">
-        <v>120.597804192237</v>
+        <v>37.86889339560849</v>
       </c>
       <c r="G24" t="n">
-        <v>120.597804192237</v>
+        <v>37.86889339560849</v>
       </c>
       <c r="H24" t="n">
-        <v>120.597804192237</v>
+        <v>37.86889339560849</v>
       </c>
       <c r="I24" t="n">
-        <v>37.86889339560851</v>
+        <v>37.86889339560849</v>
       </c>
       <c r="J24" t="n">
-        <v>57.76394908595435</v>
+        <v>57.76394908595347</v>
       </c>
       <c r="K24" t="n">
-        <v>218.3733813308858</v>
+        <v>218.3733813308849</v>
       </c>
       <c r="L24" t="n">
-        <v>495.1821903824016</v>
+        <v>495.1821903824008</v>
       </c>
       <c r="M24" t="n">
-        <v>871.0052083922014</v>
+        <v>871.0052083922005</v>
       </c>
       <c r="N24" t="n">
         <v>1272.17387539586</v>
       </c>
       <c r="O24" t="n">
-        <v>1571.536812350292</v>
+        <v>1571.536812350291</v>
       </c>
       <c r="P24" t="n">
-        <v>1795.375420480262</v>
+        <v>1795.375420480261</v>
       </c>
       <c r="Q24" t="n">
-        <v>1893.444669780425</v>
+        <v>1893.444669780424</v>
       </c>
       <c r="R24" t="n">
-        <v>1893.444669780425</v>
+        <v>1893.444669780424</v>
       </c>
       <c r="S24" t="n">
-        <v>1893.444669780425</v>
+        <v>1893.444669780424</v>
       </c>
       <c r="T24" t="n">
-        <v>1891.529934719897</v>
+        <v>1893.444669780424</v>
       </c>
       <c r="U24" t="n">
-        <v>1664.61237554202</v>
+        <v>1726.839254728774</v>
       </c>
       <c r="V24" t="n">
-        <v>1430.36113206762</v>
+        <v>1492.588011254375</v>
       </c>
       <c r="W24" t="n">
-        <v>1177.846640400954</v>
+        <v>1240.073519587708</v>
       </c>
       <c r="X24" t="n">
-        <v>971.3197418065313</v>
+        <v>1033.546620993286</v>
       </c>
       <c r="Y24" t="n">
-        <v>765.5913060301817</v>
+        <v>827.8181852169363</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.6420698732939</v>
+        <v>42.82877060500932</v>
       </c>
       <c r="C25" t="n">
-        <v>39.6420698732939</v>
+        <v>42.82877060500932</v>
       </c>
       <c r="D25" t="n">
-        <v>39.6420698732939</v>
+        <v>42.82877060500932</v>
       </c>
       <c r="E25" t="n">
-        <v>39.6420698732939</v>
+        <v>42.82877060500932</v>
       </c>
       <c r="F25" t="n">
-        <v>39.6420698732939</v>
+        <v>42.82877060500932</v>
       </c>
       <c r="G25" t="n">
-        <v>39.6420698732939</v>
+        <v>39.64206987329388</v>
       </c>
       <c r="H25" t="n">
-        <v>39.6420698732939</v>
+        <v>39.64206987329388</v>
       </c>
       <c r="I25" t="n">
-        <v>39.6420698732939</v>
+        <v>39.64206987329388</v>
       </c>
       <c r="J25" t="n">
-        <v>39.6420698732939</v>
+        <v>39.64206987329388</v>
       </c>
       <c r="K25" t="n">
-        <v>37.86889339560851</v>
+        <v>37.86889339560849</v>
       </c>
       <c r="L25" t="n">
-        <v>91.4486073265245</v>
+        <v>91.44860732652448</v>
       </c>
       <c r="M25" t="n">
         <v>158.5338028588098</v>
@@ -6190,7 +6190,7 @@
         <v>52.37832848166099</v>
       </c>
       <c r="Y25" t="n">
-        <v>39.6420698732939</v>
+        <v>42.82877060500932</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1430.130424723656</v>
+        <v>1430.130424723657</v>
       </c>
       <c r="C26" t="n">
         <v>1217.746309093562</v>
@@ -6209,31 +6209,31 @@
         <v>1015.847408538563</v>
       </c>
       <c r="E26" t="n">
-        <v>787.1673938414538</v>
+        <v>787.1673938414536</v>
       </c>
       <c r="F26" t="n">
-        <v>534.0673511390381</v>
+        <v>534.0673511390382</v>
       </c>
       <c r="G26" t="n">
         <v>273.5823685711146</v>
       </c>
       <c r="H26" t="n">
-        <v>92.91499422286597</v>
+        <v>92.914994222866</v>
       </c>
       <c r="I26" t="n">
-        <v>53.65375130500951</v>
+        <v>53.65375130500953</v>
       </c>
       <c r="J26" t="n">
-        <v>229.1490506846734</v>
+        <v>229.1490506846733</v>
       </c>
       <c r="K26" t="n">
-        <v>537.0641962511365</v>
+        <v>537.0641962511363</v>
       </c>
       <c r="L26" t="n">
-        <v>933.7001238932013</v>
+        <v>933.7001238932011</v>
       </c>
       <c r="M26" t="n">
-        <v>1372.76118818903</v>
+        <v>1372.761188189029</v>
       </c>
       <c r="N26" t="n">
         <v>1800.898932793828</v>
@@ -6242,34 +6242,34 @@
         <v>2167.695589670748</v>
       </c>
       <c r="P26" t="n">
-        <v>2466.543431147426</v>
+        <v>2466.543431147428</v>
       </c>
       <c r="Q26" t="n">
-        <v>2652.427010019824</v>
+        <v>2652.427010019825</v>
       </c>
       <c r="R26" t="n">
-        <v>2682.687565250475</v>
+        <v>2682.687565250476</v>
       </c>
       <c r="S26" t="n">
-        <v>2638.80114913449</v>
+        <v>2638.801149134491</v>
       </c>
       <c r="T26" t="n">
-        <v>2572.996354850937</v>
+        <v>2572.996354850938</v>
       </c>
       <c r="U26" t="n">
-        <v>2477.306498835906</v>
+        <v>2477.306498835907</v>
       </c>
       <c r="V26" t="n">
-        <v>2303.762660131492</v>
+        <v>2303.762660131493</v>
       </c>
       <c r="W26" t="n">
-        <v>2107.999735085628</v>
+        <v>2107.999735085629</v>
       </c>
       <c r="X26" t="n">
         <v>1891.69995940278</v>
       </c>
       <c r="Y26" t="n">
-        <v>1659.414857841076</v>
+        <v>1659.414857841077</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>406.5535150481933</v>
+        <v>564.8614152554145</v>
       </c>
       <c r="C27" t="n">
-        <v>392.108300177232</v>
+        <v>392.1083001772317</v>
       </c>
       <c r="D27" t="n">
-        <v>244.5199935361759</v>
+        <v>244.5199935361755</v>
       </c>
       <c r="E27" t="n">
-        <v>244.5199935361759</v>
+        <v>86.91046453903024</v>
       </c>
       <c r="F27" t="n">
-        <v>99.56420355279275</v>
+        <v>86.91046453903024</v>
       </c>
       <c r="G27" t="n">
-        <v>99.56420355279275</v>
+        <v>53.65375130500953</v>
       </c>
       <c r="H27" t="n">
-        <v>53.65375130500951</v>
+        <v>53.65375130500953</v>
       </c>
       <c r="I27" t="n">
-        <v>53.65375130500951</v>
+        <v>53.65375130500953</v>
       </c>
       <c r="J27" t="n">
-        <v>73.54880699535559</v>
+        <v>73.54880699535562</v>
       </c>
       <c r="K27" t="n">
-        <v>234.1582392402869</v>
+        <v>234.158239240287</v>
       </c>
       <c r="L27" t="n">
         <v>510.9670482918028</v>
@@ -6330,25 +6330,25 @@
         <v>1909.229527689826</v>
       </c>
       <c r="S27" t="n">
-        <v>1741.069001351987</v>
+        <v>1899.376901559208</v>
       </c>
       <c r="T27" t="n">
-        <v>1541.226794652248</v>
+        <v>1857.842595066691</v>
       </c>
       <c r="U27" t="n">
-        <v>1314.30923547437</v>
+        <v>1630.925035888813</v>
       </c>
       <c r="V27" t="n">
-        <v>1080.057991999971</v>
+        <v>1396.673792414414</v>
       </c>
       <c r="W27" t="n">
-        <v>827.5435003333042</v>
+        <v>1144.159300747747</v>
       </c>
       <c r="X27" t="n">
-        <v>621.0166017388817</v>
+        <v>937.6324021533245</v>
       </c>
       <c r="Y27" t="n">
-        <v>573.5960661697537</v>
+        <v>731.9039663769749</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.48951538799271</v>
+        <v>64.37267224041673</v>
       </c>
       <c r="C28" t="n">
-        <v>68.77059445258564</v>
+        <v>53.65375130500953</v>
       </c>
       <c r="D28" t="n">
-        <v>68.77059445258564</v>
+        <v>61.29581344873307</v>
       </c>
       <c r="E28" t="n">
-        <v>68.77059445258564</v>
+        <v>70.9485085103636</v>
       </c>
       <c r="F28" t="n">
-        <v>68.77059445258564</v>
+        <v>81.40865030775485</v>
       </c>
       <c r="G28" t="n">
-        <v>57.60624000241644</v>
+        <v>70.24429585758551</v>
       </c>
       <c r="H28" t="n">
-        <v>53.65375130500951</v>
+        <v>66.29180716017844</v>
       </c>
       <c r="I28" t="n">
-        <v>53.65375130500951</v>
+        <v>72.56457444778461</v>
       </c>
       <c r="J28" t="n">
-        <v>53.65375130500951</v>
+        <v>147.6148839150312</v>
       </c>
       <c r="K28" t="n">
-        <v>85.77631808530677</v>
+        <v>147.6148839150312</v>
       </c>
       <c r="L28" t="n">
-        <v>294.5136050093206</v>
+        <v>201.1945978459472</v>
       </c>
       <c r="M28" t="n">
-        <v>361.5988005416059</v>
+        <v>268.2797933782325</v>
       </c>
       <c r="N28" t="n">
-        <v>432.2301219617586</v>
+        <v>494.068687791483</v>
       </c>
       <c r="O28" t="n">
-        <v>482.1329827484883</v>
+        <v>622.1737125940114</v>
       </c>
       <c r="P28" t="n">
-        <v>656.7685927359361</v>
+        <v>641.6517495883613</v>
       </c>
       <c r="Q28" t="n">
-        <v>742.2524711143667</v>
+        <v>727.1356279667918</v>
       </c>
       <c r="R28" t="n">
-        <v>730.5071737507737</v>
+        <v>715.3903306031988</v>
       </c>
       <c r="S28" t="n">
-        <v>666.1842030381126</v>
+        <v>651.0673598905375</v>
       </c>
       <c r="T28" t="n">
-        <v>594.3368731810644</v>
+        <v>579.2200300334893</v>
       </c>
       <c r="U28" t="n">
-        <v>463.7092600540223</v>
+        <v>448.592416906447</v>
       </c>
       <c r="V28" t="n">
-        <v>366.5258965572649</v>
+        <v>351.4090534096895</v>
       </c>
       <c r="W28" t="n">
-        <v>235.8513958681071</v>
+        <v>220.7345527205316</v>
       </c>
       <c r="X28" t="n">
-        <v>165.7346900830971</v>
+        <v>150.6178469355214</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0843338582295</v>
+        <v>87.96749071065372</v>
       </c>
     </row>
     <row r="29">
@@ -6437,61 +6437,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1430.130424723656</v>
+        <v>1430.130424723657</v>
       </c>
       <c r="C29" t="n">
-        <v>1217.746309093562</v>
+        <v>1217.746309093563</v>
       </c>
       <c r="D29" t="n">
-        <v>1015.847408538563</v>
+        <v>1015.847408538564</v>
       </c>
       <c r="E29" t="n">
-        <v>787.1673938414536</v>
+        <v>787.1673938414549</v>
       </c>
       <c r="F29" t="n">
-        <v>534.067351139038</v>
+        <v>534.0673511390394</v>
       </c>
       <c r="G29" t="n">
-        <v>273.5823685711144</v>
+        <v>273.582368571116</v>
       </c>
       <c r="H29" t="n">
-        <v>92.9149942228659</v>
+        <v>92.91499422286574</v>
       </c>
       <c r="I29" t="n">
-        <v>53.65375130500957</v>
+        <v>53.65375130500953</v>
       </c>
       <c r="J29" t="n">
-        <v>229.1490506846733</v>
+        <v>229.1490506846735</v>
       </c>
       <c r="K29" t="n">
-        <v>537.0641962511365</v>
+        <v>537.0641962511367</v>
       </c>
       <c r="L29" t="n">
-        <v>933.7001238932013</v>
+        <v>933.7001238932005</v>
       </c>
       <c r="M29" t="n">
-        <v>1372.76118818903</v>
+        <v>1372.761188189029</v>
       </c>
       <c r="N29" t="n">
-        <v>1800.89893279383</v>
+        <v>1800.898932793828</v>
       </c>
       <c r="O29" t="n">
-        <v>2167.69558967075</v>
+        <v>2167.695589670749</v>
       </c>
       <c r="P29" t="n">
-        <v>2466.54343114743</v>
+        <v>2466.543431147427</v>
       </c>
       <c r="Q29" t="n">
-        <v>2652.427010019828</v>
+        <v>2652.427010019825</v>
       </c>
       <c r="R29" t="n">
-        <v>2682.687565250479</v>
+        <v>2682.687565250476</v>
       </c>
       <c r="S29" t="n">
-        <v>2638.801149134493</v>
+        <v>2638.801149134491</v>
       </c>
       <c r="T29" t="n">
-        <v>2572.996354850941</v>
+        <v>2572.996354850938</v>
       </c>
       <c r="U29" t="n">
         <v>2477.306498835908</v>
@@ -6503,10 +6503,10 @@
         <v>2107.99973508563</v>
       </c>
       <c r="X29" t="n">
-        <v>1891.699959402781</v>
+        <v>1891.699959402782</v>
       </c>
       <c r="Y29" t="n">
-        <v>1659.414857841076</v>
+        <v>1659.414857841077</v>
       </c>
     </row>
     <row r="30">
@@ -6528,19 +6528,19 @@
         <v>198.6095412883927</v>
       </c>
       <c r="F30" t="n">
-        <v>53.65375130500957</v>
+        <v>53.65375130500953</v>
       </c>
       <c r="G30" t="n">
-        <v>53.65375130500957</v>
+        <v>53.65375130500953</v>
       </c>
       <c r="H30" t="n">
-        <v>53.65375130500957</v>
+        <v>53.65375130500953</v>
       </c>
       <c r="I30" t="n">
-        <v>53.65375130500957</v>
+        <v>53.65375130500953</v>
       </c>
       <c r="J30" t="n">
-        <v>73.54880699535565</v>
+        <v>73.54880699535562</v>
       </c>
       <c r="K30" t="n">
         <v>234.158239240287</v>
@@ -6564,25 +6564,25 @@
         <v>1909.229527689826</v>
       </c>
       <c r="R30" t="n">
-        <v>1862.620704231967</v>
+        <v>1909.229527689826</v>
       </c>
       <c r="S30" t="n">
-        <v>1694.460177894128</v>
+        <v>1899.376901559209</v>
       </c>
       <c r="T30" t="n">
-        <v>1494.617971194389</v>
+        <v>1857.842595066691</v>
       </c>
       <c r="U30" t="n">
-        <v>1426.008312223732</v>
+        <v>1742.624112638175</v>
       </c>
       <c r="V30" t="n">
-        <v>1350.064968956555</v>
+        <v>1508.372869163776</v>
       </c>
       <c r="W30" t="n">
-        <v>1097.550477289888</v>
+        <v>1255.858377497109</v>
       </c>
       <c r="X30" t="n">
-        <v>891.0235786954654</v>
+        <v>1049.331478902687</v>
       </c>
       <c r="Y30" t="n">
         <v>843.6030431263374</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.48951538799278</v>
+        <v>79.48951538799238</v>
       </c>
       <c r="C31" t="n">
-        <v>68.77059445258571</v>
+        <v>68.77059445258543</v>
       </c>
       <c r="D31" t="n">
-        <v>68.77059445258571</v>
+        <v>68.77059445258543</v>
       </c>
       <c r="E31" t="n">
-        <v>68.77059445258571</v>
+        <v>68.77059445258543</v>
       </c>
       <c r="F31" t="n">
-        <v>68.77059445258571</v>
+        <v>68.77059445258543</v>
       </c>
       <c r="G31" t="n">
-        <v>57.60624000241651</v>
+        <v>57.60624000241635</v>
       </c>
       <c r="H31" t="n">
-        <v>53.65375130500957</v>
+        <v>53.65375130500953</v>
       </c>
       <c r="I31" t="n">
-        <v>53.65375130500957</v>
+        <v>53.65375130500953</v>
       </c>
       <c r="J31" t="n">
-        <v>53.65375130500957</v>
+        <v>53.65375130500953</v>
       </c>
       <c r="K31" t="n">
-        <v>53.65375130500957</v>
+        <v>53.65375130500953</v>
       </c>
       <c r="L31" t="n">
-        <v>107.2334652359256</v>
+        <v>224.8399103946518</v>
       </c>
       <c r="M31" t="n">
-        <v>174.3186607682109</v>
+        <v>447.082678920035</v>
       </c>
       <c r="N31" t="n">
-        <v>362.5564273470915</v>
+        <v>672.8715733332857</v>
       </c>
       <c r="O31" t="n">
-        <v>567.616861126919</v>
+        <v>722.7744341200154</v>
       </c>
       <c r="P31" t="n">
-        <v>742.2524711143668</v>
+        <v>742.2524711143653</v>
       </c>
       <c r="Q31" t="n">
-        <v>742.2524711143668</v>
+        <v>742.2524711143653</v>
       </c>
       <c r="R31" t="n">
-        <v>730.5071737507739</v>
+        <v>730.5071737507725</v>
       </c>
       <c r="S31" t="n">
-        <v>666.1842030381127</v>
+        <v>666.1842030381115</v>
       </c>
       <c r="T31" t="n">
-        <v>594.3368731810646</v>
+        <v>594.3368731810634</v>
       </c>
       <c r="U31" t="n">
-        <v>463.7092600540224</v>
+        <v>463.7092600540214</v>
       </c>
       <c r="V31" t="n">
-        <v>366.525896557265</v>
+        <v>366.5258965572641</v>
       </c>
       <c r="W31" t="n">
-        <v>235.8513958681072</v>
+        <v>235.8513958681065</v>
       </c>
       <c r="X31" t="n">
-        <v>165.7346900830972</v>
+        <v>165.7346900830966</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.0843338582296</v>
+        <v>103.0843338582291</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1363.853970935044</v>
+        <v>1363.853970935043</v>
       </c>
       <c r="C32" t="n">
         <v>1160.541213505067</v>
@@ -6686,61 +6686,61 @@
         <v>748.1050146531932</v>
       </c>
       <c r="F32" t="n">
-        <v>504.0763301508946</v>
+        <v>504.0763301508948</v>
       </c>
       <c r="G32" t="n">
-        <v>252.6627057830888</v>
+        <v>252.6627057830887</v>
       </c>
       <c r="H32" t="n">
-        <v>81.06668963495754</v>
+        <v>81.06668963495741</v>
       </c>
       <c r="I32" t="n">
-        <v>50.87680491721849</v>
+        <v>50.87680491721847</v>
       </c>
       <c r="J32" t="n">
-        <v>235.2629424688173</v>
+        <v>235.2629424688174</v>
       </c>
       <c r="K32" t="n">
-        <v>388.0205150421825</v>
+        <v>552.0689262072156</v>
       </c>
       <c r="L32" t="n">
-        <v>741.5077754720388</v>
+        <v>957.5956920212154</v>
       </c>
       <c r="M32" t="n">
-        <v>1189.459677939802</v>
+        <v>1405.547594488979</v>
       </c>
       <c r="N32" t="n">
-        <v>1626.488260716536</v>
+        <v>1678.52776610068</v>
       </c>
       <c r="O32" t="n">
-        <v>2002.175755765391</v>
+        <v>2002.17575576539</v>
       </c>
       <c r="P32" t="n">
-        <v>2309.914435414005</v>
+        <v>2309.914435414004</v>
       </c>
       <c r="Q32" t="n">
-        <v>2504.688852458338</v>
+        <v>2504.688852458337</v>
       </c>
       <c r="R32" t="n">
-        <v>2543.840245860924</v>
+        <v>2543.840245860923</v>
       </c>
       <c r="S32" t="n">
-        <v>2509.025187945056</v>
+        <v>2509.025187945055</v>
       </c>
       <c r="T32" t="n">
         <v>2452.29175186162</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.673254046707</v>
+        <v>2365.673254046706</v>
       </c>
       <c r="V32" t="n">
-        <v>2201.20077354241</v>
+        <v>2201.200773542409</v>
       </c>
       <c r="W32" t="n">
-        <v>2014.509206696664</v>
+        <v>2014.509206696663</v>
       </c>
       <c r="X32" t="n">
-        <v>1807.280789213933</v>
+        <v>1807.280789213932</v>
       </c>
       <c r="Y32" t="n">
         <v>1584.067045852346</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>673.7835456169859</v>
+        <v>747.6064436751975</v>
       </c>
       <c r="C33" t="n">
-        <v>501.030430538803</v>
+        <v>574.8533285970148</v>
       </c>
       <c r="D33" t="n">
-        <v>353.4421238977469</v>
+        <v>427.2650219559586</v>
       </c>
       <c r="E33" t="n">
-        <v>195.8325949006016</v>
+        <v>269.6554929588133</v>
       </c>
       <c r="F33" t="n">
-        <v>50.87680491721849</v>
+        <v>124.6997029754301</v>
       </c>
       <c r="G33" t="n">
-        <v>50.87680491721849</v>
+        <v>124.6997029754301</v>
       </c>
       <c r="H33" t="n">
-        <v>50.87680491721849</v>
+        <v>50.87680491721847</v>
       </c>
       <c r="I33" t="n">
-        <v>50.87680491721849</v>
+        <v>50.87680491721847</v>
       </c>
       <c r="J33" t="n">
-        <v>70.77186060756458</v>
+        <v>70.77186060756455</v>
       </c>
       <c r="K33" t="n">
         <v>231.3812928524959</v>
@@ -6801,28 +6801,28 @@
         <v>1906.452581302035</v>
       </c>
       <c r="R33" t="n">
-        <v>1832.629683243824</v>
+        <v>1906.452581302035</v>
       </c>
       <c r="S33" t="n">
-        <v>1831.848415313323</v>
+        <v>1905.671313371535</v>
       </c>
       <c r="T33" t="n">
-        <v>1799.385467020923</v>
+        <v>1873.208365079135</v>
       </c>
       <c r="U33" t="n">
-        <v>1739.847166250384</v>
+        <v>1646.290805901257</v>
       </c>
       <c r="V33" t="n">
-        <v>1505.595922775985</v>
+        <v>1412.039562426858</v>
       </c>
       <c r="W33" t="n">
-        <v>1253.081431109318</v>
+        <v>1159.525070760191</v>
       </c>
       <c r="X33" t="n">
-        <v>1046.554532514896</v>
+        <v>952.9981721657686</v>
       </c>
       <c r="Y33" t="n">
-        <v>840.8260967385463</v>
+        <v>914.648994796758</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.61736390256017</v>
+        <v>54.61736390255993</v>
       </c>
       <c r="C34" t="n">
-        <v>52.9698011672704</v>
+        <v>52.96980116727027</v>
       </c>
       <c r="D34" t="n">
-        <v>52.9698011672704</v>
+        <v>52.96980116727027</v>
       </c>
       <c r="E34" t="n">
-        <v>52.9698011672704</v>
+        <v>52.96980116727027</v>
       </c>
       <c r="F34" t="n">
-        <v>52.9698011672704</v>
+        <v>52.96980116727027</v>
       </c>
       <c r="G34" t="n">
-        <v>50.87680491721849</v>
+        <v>50.87680491721847</v>
       </c>
       <c r="H34" t="n">
-        <v>50.87680491721849</v>
+        <v>50.87680491721847</v>
       </c>
       <c r="I34" t="n">
-        <v>66.04041037675975</v>
+        <v>50.87680491721847</v>
       </c>
       <c r="J34" t="n">
-        <v>116.6378394480465</v>
+        <v>50.87680491721847</v>
       </c>
       <c r="K34" t="n">
-        <v>116.6378394480465</v>
+        <v>50.87680491721847</v>
       </c>
       <c r="L34" t="n">
-        <v>170.2175533789625</v>
+        <v>104.4565188481345</v>
       </c>
       <c r="M34" t="n">
-        <v>237.3027489112478</v>
+        <v>171.5417143804198</v>
       </c>
       <c r="N34" t="n">
-        <v>471.9824814964334</v>
+        <v>402.3087868817647</v>
       </c>
       <c r="O34" t="n">
-        <v>521.885342283163</v>
+        <v>616.2600588335273</v>
       </c>
       <c r="P34" t="n">
-        <v>541.363379277513</v>
+        <v>635.7380958278773</v>
       </c>
       <c r="Q34" t="n">
-        <v>635.7380958278785</v>
+        <v>635.7380958278773</v>
       </c>
       <c r="R34" t="n">
-        <v>633.0641566644028</v>
+        <v>633.0641566644017</v>
       </c>
       <c r="S34" t="n">
-        <v>577.812544151859</v>
+        <v>577.812544151858</v>
       </c>
       <c r="T34" t="n">
-        <v>515.0365724949281</v>
+        <v>515.0365724949272</v>
       </c>
       <c r="U34" t="n">
-        <v>393.4803175680033</v>
+        <v>393.4803175680025</v>
       </c>
       <c r="V34" t="n">
-        <v>305.3683122713632</v>
+        <v>305.3683122713625</v>
       </c>
       <c r="W34" t="n">
-        <v>183.7651697823227</v>
+        <v>183.7651697823221</v>
       </c>
       <c r="X34" t="n">
-        <v>122.71982219743</v>
+        <v>122.7198221974295</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.14082417267971</v>
+        <v>69.14082417267936</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1056.479533807104</v>
+        <v>1056.479533807103</v>
       </c>
       <c r="C35" t="n">
-        <v>897.1962165252259</v>
+        <v>897.1962165252246</v>
       </c>
       <c r="D35" t="n">
-        <v>748.3981143184426</v>
+        <v>748.3981143184415</v>
       </c>
       <c r="E35" t="n">
-        <v>572.8188979695493</v>
+        <v>572.8188979695481</v>
       </c>
       <c r="F35" t="n">
-        <v>372.8196536153494</v>
+        <v>372.8196536153482</v>
       </c>
       <c r="G35" t="n">
-        <v>165.4354693956413</v>
+        <v>165.4354693956412</v>
       </c>
       <c r="H35" t="n">
-        <v>37.86889339560853</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="I35" t="n">
-        <v>37.86889339560853</v>
+        <v>51.43304167290391</v>
       </c>
       <c r="J35" t="n">
-        <v>58.2066197821745</v>
+        <v>73.00832775730322</v>
       </c>
       <c r="K35" t="n">
-        <v>210.9641923555397</v>
+        <v>432.9675657848527</v>
       </c>
       <c r="L35" t="n">
-        <v>452.4425470045067</v>
+        <v>674.4459204338197</v>
       </c>
       <c r="M35" t="n">
-        <v>921.0701027751622</v>
+        <v>1143.073476204475</v>
       </c>
       <c r="N35" t="n">
-        <v>1389.697658545818</v>
+        <v>1416.053647816176</v>
       </c>
       <c r="O35" t="n">
-        <v>1601.33674242964</v>
+        <v>1627.692731699998</v>
       </c>
       <c r="P35" t="n">
-        <v>1745.027010913221</v>
+        <v>1771.383000183579</v>
       </c>
       <c r="Q35" t="n">
-        <v>1802.10900606288</v>
+        <v>1802.109006062879</v>
       </c>
       <c r="R35" t="n">
-        <v>1884.413653754618</v>
+        <v>1884.413653754617</v>
       </c>
       <c r="S35" t="n">
-        <v>1893.444669780426</v>
+        <v>1893.444669780425</v>
       </c>
       <c r="T35" t="n">
-        <v>1880.740673845089</v>
+        <v>1880.740673845088</v>
       </c>
       <c r="U35" t="n">
         <v>1838.151616178274</v>
@@ -6974,13 +6974,13 @@
         <v>1717.708575822076</v>
       </c>
       <c r="W35" t="n">
-        <v>1575.046449124428</v>
+        <v>1575.046449124427</v>
       </c>
       <c r="X35" t="n">
-        <v>1411.847471789796</v>
+        <v>1411.847471789795</v>
       </c>
       <c r="Y35" t="n">
-        <v>1232.663168576308</v>
+        <v>1232.663168576307</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>743.5045448920046</v>
+        <v>340.434212376137</v>
       </c>
       <c r="C36" t="n">
-        <v>570.7514298138217</v>
+        <v>340.434212376137</v>
       </c>
       <c r="D36" t="n">
-        <v>423.1631231727655</v>
+        <v>340.434212376137</v>
       </c>
       <c r="E36" t="n">
-        <v>265.5535941756202</v>
+        <v>182.8246833789917</v>
       </c>
       <c r="F36" t="n">
-        <v>120.597804192237</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="G36" t="n">
-        <v>120.597804192237</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="H36" t="n">
-        <v>120.597804192237</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="I36" t="n">
-        <v>37.86889339560853</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="J36" t="n">
-        <v>57.76394908595461</v>
+        <v>57.76394908595444</v>
       </c>
       <c r="K36" t="n">
-        <v>218.373381330886</v>
+        <v>218.3733813308856</v>
       </c>
       <c r="L36" t="n">
-        <v>495.1821903824018</v>
+        <v>495.1821903824016</v>
       </c>
       <c r="M36" t="n">
-        <v>871.0052083922017</v>
+        <v>871.0052083922014</v>
       </c>
       <c r="N36" t="n">
-        <v>1272.173875395861</v>
+        <v>1272.17387539586</v>
       </c>
       <c r="O36" t="n">
         <v>1571.536812350292</v>
       </c>
       <c r="P36" t="n">
-        <v>1795.375420480263</v>
+        <v>1795.375420480262</v>
       </c>
       <c r="Q36" t="n">
-        <v>1893.444669780426</v>
+        <v>1893.444669780425</v>
       </c>
       <c r="R36" t="n">
-        <v>1893.444669780426</v>
+        <v>1806.175701569391</v>
       </c>
       <c r="S36" t="n">
-        <v>1893.444669780426</v>
+        <v>1638.015175231552</v>
       </c>
       <c r="T36" t="n">
-        <v>1893.444669780426</v>
+        <v>1466.372841065853</v>
       </c>
       <c r="U36" t="n">
-        <v>1809.568165525403</v>
+        <v>1239.455281887975</v>
       </c>
       <c r="V36" t="n">
-        <v>1575.316922051004</v>
+        <v>1005.204038413576</v>
       </c>
       <c r="W36" t="n">
-        <v>1322.802430384337</v>
+        <v>752.6895467469091</v>
       </c>
       <c r="X36" t="n">
-        <v>1116.275531789915</v>
+        <v>546.1626481524866</v>
       </c>
       <c r="Y36" t="n">
-        <v>910.547096013565</v>
+        <v>340.434212376137</v>
       </c>
     </row>
     <row r="37">
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.86889339560853</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="C37" t="n">
-        <v>37.86889339560853</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="D37" t="n">
-        <v>37.86889339560853</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="E37" t="n">
-        <v>37.86889339560853</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="F37" t="n">
-        <v>37.86889339560853</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="G37" t="n">
-        <v>37.86889339560853</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="H37" t="n">
-        <v>37.86889339560853</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="I37" t="n">
-        <v>37.86889339560853</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="J37" t="n">
-        <v>37.86889339560853</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="K37" t="n">
-        <v>37.86889339560853</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="L37" t="n">
-        <v>91.44860732652452</v>
+        <v>91.4486073265245</v>
       </c>
       <c r="M37" t="n">
         <v>158.5338028588098</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1651242789626</v>
+        <v>229.1651242789625</v>
       </c>
       <c r="O37" t="n">
-        <v>279.0679850656923</v>
+        <v>279.0679850656922</v>
       </c>
       <c r="P37" t="n">
         <v>298.5460220600422</v>
@@ -7120,10 +7120,10 @@
         <v>298.5460220600422</v>
       </c>
       <c r="S37" t="n">
-        <v>287.3238496955971</v>
+        <v>287.323849695597</v>
       </c>
       <c r="T37" t="n">
-        <v>268.5773181867648</v>
+        <v>268.5773181867647</v>
       </c>
       <c r="U37" t="n">
         <v>191.0505034079385</v>
@@ -7132,13 +7132,13 @@
         <v>146.967938259397</v>
       </c>
       <c r="W37" t="n">
-        <v>64.43435870905431</v>
+        <v>69.39423591845511</v>
       </c>
       <c r="X37" t="n">
-        <v>47.41845127226019</v>
+        <v>47.41845127226017</v>
       </c>
       <c r="Y37" t="n">
-        <v>37.86889339560853</v>
+        <v>37.86889339560851</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1056.479533807103</v>
+        <v>1056.479533807104</v>
       </c>
       <c r="C38" t="n">
-        <v>897.1962165252247</v>
+        <v>897.1962165252253</v>
       </c>
       <c r="D38" t="n">
-        <v>748.3981143184415</v>
+        <v>748.3981143184421</v>
       </c>
       <c r="E38" t="n">
-        <v>572.8188979695482</v>
+        <v>572.8188979695487</v>
       </c>
       <c r="F38" t="n">
-        <v>372.8196536153482</v>
+        <v>372.8196536153489</v>
       </c>
       <c r="G38" t="n">
-        <v>165.4354693956412</v>
+        <v>165.4354693956413</v>
       </c>
       <c r="H38" t="n">
         <v>37.86889339560851</v>
       </c>
       <c r="I38" t="n">
-        <v>37.86889339560851</v>
+        <v>39.22401641028678</v>
       </c>
       <c r="J38" t="n">
-        <v>58.20661978217447</v>
+        <v>59.56174279685274</v>
       </c>
       <c r="K38" t="n">
-        <v>210.9641923555397</v>
+        <v>419.5209808244022</v>
       </c>
       <c r="L38" t="n">
-        <v>452.4425470045067</v>
+        <v>660.9993354733691</v>
       </c>
       <c r="M38" t="n">
-        <v>736.3460383072371</v>
+        <v>944.9028267760996</v>
       </c>
       <c r="N38" t="n">
-        <v>1009.326209918938</v>
+        <v>1217.8829983878</v>
       </c>
       <c r="O38" t="n">
-        <v>1220.965293802761</v>
+        <v>1429.522082271623</v>
       </c>
       <c r="P38" t="n">
-        <v>1571.857227740526</v>
+        <v>1573.212350755204</v>
       </c>
       <c r="Q38" t="n">
-        <v>1809.78489907401</v>
+        <v>1811.140022088688</v>
       </c>
       <c r="R38" t="n">
-        <v>1884.413653754617</v>
+        <v>1893.444669780426</v>
       </c>
       <c r="S38" t="n">
-        <v>1893.444669780425</v>
+        <v>1893.444669780426</v>
       </c>
       <c r="T38" t="n">
-        <v>1880.740673845088</v>
+        <v>1880.740673845089</v>
       </c>
       <c r="U38" t="n">
         <v>1838.151616178274</v>
       </c>
       <c r="V38" t="n">
-        <v>1717.708575822075</v>
+        <v>1717.708575822076</v>
       </c>
       <c r="W38" t="n">
-        <v>1575.046449124427</v>
+        <v>1575.046449124428</v>
       </c>
       <c r="X38" t="n">
         <v>1411.847471789795</v>
       </c>
       <c r="Y38" t="n">
-        <v>1232.663168576307</v>
+        <v>1232.663168576308</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>660.7756340953759</v>
+        <v>806.9903885635717</v>
       </c>
       <c r="C39" t="n">
-        <v>488.0225190171931</v>
+        <v>634.2372734853889</v>
       </c>
       <c r="D39" t="n">
-        <v>340.434212376137</v>
+        <v>486.6489668443327</v>
       </c>
       <c r="E39" t="n">
-        <v>182.8246833789917</v>
+        <v>329.0394378471874</v>
       </c>
       <c r="F39" t="n">
-        <v>37.86889339560851</v>
+        <v>184.0836478638043</v>
       </c>
       <c r="G39" t="n">
-        <v>37.86889339560851</v>
+        <v>46.82147686149199</v>
       </c>
       <c r="H39" t="n">
-        <v>37.86889339560851</v>
+        <v>46.82147686149199</v>
       </c>
       <c r="I39" t="n">
         <v>37.86889339560851</v>
       </c>
       <c r="J39" t="n">
-        <v>57.76394908595466</v>
+        <v>57.76394908595459</v>
       </c>
       <c r="K39" t="n">
-        <v>218.373381330886</v>
+        <v>218.3733813308859</v>
       </c>
       <c r="L39" t="n">
-        <v>495.1821903824019</v>
+        <v>495.1821903824018</v>
       </c>
       <c r="M39" t="n">
-        <v>871.0052083922018</v>
+        <v>871.0052083922016</v>
       </c>
       <c r="N39" t="n">
-        <v>1272.173875395861</v>
+        <v>1272.17387539586</v>
       </c>
       <c r="O39" t="n">
         <v>1571.536812350292</v>
@@ -7272,31 +7272,31 @@
         <v>1795.375420480262</v>
       </c>
       <c r="Q39" t="n">
-        <v>1893.444669780425</v>
+        <v>1893.444669780426</v>
       </c>
       <c r="R39" t="n">
-        <v>1806.175701569391</v>
+        <v>1893.444669780426</v>
       </c>
       <c r="S39" t="n">
-        <v>1742.348115351215</v>
+        <v>1893.444669780426</v>
       </c>
       <c r="T39" t="n">
-        <v>1742.348115351215</v>
+        <v>1893.444669780426</v>
       </c>
       <c r="U39" t="n">
-        <v>1726.839254728774</v>
+        <v>1666.527110602548</v>
       </c>
       <c r="V39" t="n">
-        <v>1492.588011254375</v>
+        <v>1432.275867128149</v>
       </c>
       <c r="W39" t="n">
-        <v>1240.073519587708</v>
+        <v>1179.761375461482</v>
       </c>
       <c r="X39" t="n">
-        <v>1033.546620993286</v>
+        <v>1179.761375461482</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.8181852169364</v>
+        <v>974.0329396851322</v>
       </c>
     </row>
     <row r="40">
@@ -7357,22 +7357,22 @@
         <v>298.5460220600422</v>
       </c>
       <c r="S40" t="n">
-        <v>287.323849695597</v>
+        <v>287.3238496955969</v>
       </c>
       <c r="T40" t="n">
-        <v>268.5773181867647</v>
+        <v>268.5773181867646</v>
       </c>
       <c r="U40" t="n">
-        <v>186.0906261985377</v>
+        <v>186.0906261985379</v>
       </c>
       <c r="V40" t="n">
-        <v>142.0080610499962</v>
+        <v>142.0080610499963</v>
       </c>
       <c r="W40" t="n">
-        <v>64.43435870905429</v>
+        <v>64.43435870905441</v>
       </c>
       <c r="X40" t="n">
-        <v>47.41845127226017</v>
+        <v>47.41845127226023</v>
       </c>
       <c r="Y40" t="n">
         <v>37.86889339560851</v>
@@ -7388,46 +7388,46 @@
         <v>1056.479533807104</v>
       </c>
       <c r="C41" t="n">
-        <v>897.1962165252251</v>
+        <v>897.1962165252255</v>
       </c>
       <c r="D41" t="n">
-        <v>748.3981143184419</v>
+        <v>748.3981143184424</v>
       </c>
       <c r="E41" t="n">
-        <v>572.8188979695486</v>
+        <v>572.818897969549</v>
       </c>
       <c r="F41" t="n">
-        <v>372.8196536153488</v>
+        <v>372.8196536153491</v>
       </c>
       <c r="G41" t="n">
-        <v>165.4354693956412</v>
+        <v>165.4354693956413</v>
       </c>
       <c r="H41" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="I41" t="n">
-        <v>51.43304167290391</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="J41" t="n">
-        <v>84.56260905253322</v>
+        <v>58.20661978217447</v>
       </c>
       <c r="K41" t="n">
-        <v>237.3201816258984</v>
+        <v>210.9641923555397</v>
       </c>
       <c r="L41" t="n">
-        <v>478.7985362748654</v>
+        <v>452.4425470045067</v>
       </c>
       <c r="M41" t="n">
-        <v>947.4260920455206</v>
+        <v>736.3460383072371</v>
       </c>
       <c r="N41" t="n">
-        <v>1416.053647816176</v>
+        <v>1204.973594077892</v>
       </c>
       <c r="O41" t="n">
-        <v>1627.692731699998</v>
+        <v>1416.612677961715</v>
       </c>
       <c r="P41" t="n">
-        <v>1771.383000183579</v>
+        <v>1767.50461189948</v>
       </c>
       <c r="Q41" t="n">
         <v>1802.109006062879</v>
@@ -7436,10 +7436,10 @@
         <v>1884.413653754617</v>
       </c>
       <c r="S41" t="n">
-        <v>1893.444669780425</v>
+        <v>1893.444669780426</v>
       </c>
       <c r="T41" t="n">
-        <v>1880.740673845088</v>
+        <v>1880.740673845089</v>
       </c>
       <c r="U41" t="n">
         <v>1838.151616178274</v>
@@ -7451,10 +7451,10 @@
         <v>1575.046449124428</v>
       </c>
       <c r="X41" t="n">
-        <v>1411.847471789795</v>
+        <v>1411.847471789796</v>
       </c>
       <c r="Y41" t="n">
-        <v>1232.663168576307</v>
+        <v>1232.663168576308</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>660.7756340953758</v>
+        <v>600.463489969149</v>
       </c>
       <c r="C42" t="n">
-        <v>488.0225190171931</v>
+        <v>427.7103748909662</v>
       </c>
       <c r="D42" t="n">
-        <v>340.4342123761369</v>
+        <v>280.1220682499101</v>
       </c>
       <c r="E42" t="n">
-        <v>182.8246833789916</v>
+        <v>122.5125392527648</v>
       </c>
       <c r="F42" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="G42" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="H42" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="I42" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="J42" t="n">
         <v>57.76394908595459</v>
@@ -7512,28 +7512,28 @@
         <v>1893.444669780425</v>
       </c>
       <c r="R42" t="n">
-        <v>1806.175701569391</v>
+        <v>1893.444669780425</v>
       </c>
       <c r="S42" t="n">
-        <v>1806.175701569391</v>
+        <v>1893.444669780425</v>
       </c>
       <c r="T42" t="n">
-        <v>1806.175701569391</v>
+        <v>1893.444669780425</v>
       </c>
       <c r="U42" t="n">
-        <v>1726.839254728774</v>
+        <v>1666.527110602548</v>
       </c>
       <c r="V42" t="n">
-        <v>1492.588011254375</v>
+        <v>1432.275867128148</v>
       </c>
       <c r="W42" t="n">
-        <v>1240.073519587708</v>
+        <v>1179.761375461482</v>
       </c>
       <c r="X42" t="n">
-        <v>1033.546620993286</v>
+        <v>973.234476867059</v>
       </c>
       <c r="Y42" t="n">
-        <v>827.8181852169363</v>
+        <v>767.5060410907095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="C43" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="D43" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="E43" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="F43" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="G43" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="H43" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="I43" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="J43" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="K43" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="L43" t="n">
         <v>91.4486073265245</v>
@@ -7594,25 +7594,25 @@
         <v>298.5460220600422</v>
       </c>
       <c r="S43" t="n">
-        <v>287.323849695597</v>
+        <v>282.3639724861965</v>
       </c>
       <c r="T43" t="n">
-        <v>268.5773181867647</v>
+        <v>263.6174409773642</v>
       </c>
       <c r="U43" t="n">
-        <v>191.0505034079385</v>
+        <v>186.0906261985379</v>
       </c>
       <c r="V43" t="n">
-        <v>146.967938259397</v>
+        <v>142.0080610499963</v>
       </c>
       <c r="W43" t="n">
-        <v>69.39423591845511</v>
+        <v>64.43435870905441</v>
       </c>
       <c r="X43" t="n">
-        <v>47.41845127226016</v>
+        <v>47.41845127226023</v>
       </c>
       <c r="Y43" t="n">
-        <v>37.8688933956085</v>
+        <v>37.86889339560851</v>
       </c>
     </row>
     <row r="44">
@@ -7625,55 +7625,55 @@
         <v>1056.479533807104</v>
       </c>
       <c r="C44" t="n">
-        <v>897.1962165252244</v>
+        <v>897.1962165252257</v>
       </c>
       <c r="D44" t="n">
-        <v>748.3981143184412</v>
+        <v>748.3981143184426</v>
       </c>
       <c r="E44" t="n">
-        <v>572.8188979695478</v>
+        <v>572.818897969549</v>
       </c>
       <c r="F44" t="n">
-        <v>372.819653615348</v>
+        <v>372.8196536153491</v>
       </c>
       <c r="G44" t="n">
-        <v>165.4354693956412</v>
+        <v>165.4354693956413</v>
       </c>
       <c r="H44" t="n">
         <v>37.86889339560851</v>
       </c>
       <c r="I44" t="n">
-        <v>51.43304167290391</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="J44" t="n">
-        <v>71.77076805946987</v>
+        <v>58.20661978217447</v>
       </c>
       <c r="K44" t="n">
-        <v>224.5283406328351</v>
+        <v>418.1658578097239</v>
       </c>
       <c r="L44" t="n">
-        <v>466.0066952818021</v>
+        <v>659.6442124586908</v>
       </c>
       <c r="M44" t="n">
-        <v>934.6342510524573</v>
+        <v>943.5477037614213</v>
       </c>
       <c r="N44" t="n">
-        <v>1207.614422664158</v>
+        <v>1216.527875373122</v>
       </c>
       <c r="O44" t="n">
-        <v>1419.253506547981</v>
+        <v>1635.368624711129</v>
       </c>
       <c r="P44" t="n">
-        <v>1564.181334729395</v>
+        <v>1853.687647875317</v>
       </c>
       <c r="Q44" t="n">
-        <v>1802.109006062879</v>
+        <v>1884.413653754617</v>
       </c>
       <c r="R44" t="n">
         <v>1884.413653754617</v>
       </c>
       <c r="S44" t="n">
-        <v>1893.444669780425</v>
+        <v>1893.444669780426</v>
       </c>
       <c r="T44" t="n">
         <v>1880.740673845089</v>
@@ -7685,13 +7685,13 @@
         <v>1717.708575822076</v>
       </c>
       <c r="W44" t="n">
-        <v>1575.046449124428</v>
+        <v>1575.046449124429</v>
       </c>
       <c r="X44" t="n">
-        <v>1411.847471789795</v>
+        <v>1411.847471789796</v>
       </c>
       <c r="Y44" t="n">
-        <v>1232.663168576307</v>
+        <v>1232.663168576308</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>660.7756340953759</v>
+        <v>515.8198441119928</v>
       </c>
       <c r="C45" t="n">
-        <v>488.0225190171931</v>
+        <v>343.06672903381</v>
       </c>
       <c r="D45" t="n">
-        <v>340.434212376137</v>
+        <v>195.4784223927538</v>
       </c>
       <c r="E45" t="n">
-        <v>182.8246833789917</v>
+        <v>37.86889339560851</v>
       </c>
       <c r="F45" t="n">
         <v>37.86889339560851</v>
@@ -7725,7 +7725,7 @@
         <v>37.86889339560851</v>
       </c>
       <c r="J45" t="n">
-        <v>57.76394908595458</v>
+        <v>57.76394908595459</v>
       </c>
       <c r="K45" t="n">
         <v>218.3733813308859</v>
@@ -7734,7 +7734,7 @@
         <v>495.1821903824018</v>
       </c>
       <c r="M45" t="n">
-        <v>871.0052083922014</v>
+        <v>871.0052083922016</v>
       </c>
       <c r="N45" t="n">
         <v>1272.17387539586</v>
@@ -7749,28 +7749,28 @@
         <v>1893.444669780425</v>
       </c>
       <c r="R45" t="n">
-        <v>1806.175701569391</v>
+        <v>1893.444669780425</v>
       </c>
       <c r="S45" t="n">
-        <v>1742.348115351215</v>
+        <v>1893.444669780425</v>
       </c>
       <c r="T45" t="n">
-        <v>1742.348115351215</v>
+        <v>1808.801023923269</v>
       </c>
       <c r="U45" t="n">
-        <v>1726.839254728774</v>
+        <v>1581.883464745391</v>
       </c>
       <c r="V45" t="n">
-        <v>1492.588011254375</v>
+        <v>1347.632221270992</v>
       </c>
       <c r="W45" t="n">
-        <v>1240.073519587708</v>
+        <v>1095.117729604325</v>
       </c>
       <c r="X45" t="n">
-        <v>1033.546620993286</v>
+        <v>888.5908310099028</v>
       </c>
       <c r="Y45" t="n">
-        <v>827.8181852169364</v>
+        <v>682.8623952335532</v>
       </c>
     </row>
     <row r="46">
@@ -7831,22 +7831,22 @@
         <v>298.5460220600422</v>
       </c>
       <c r="S46" t="n">
-        <v>287.323849695597</v>
+        <v>282.3639724861965</v>
       </c>
       <c r="T46" t="n">
-        <v>263.6174409773639</v>
+        <v>263.6174409773642</v>
       </c>
       <c r="U46" t="n">
-        <v>186.0906261985377</v>
+        <v>186.0906261985379</v>
       </c>
       <c r="V46" t="n">
-        <v>142.0080610499962</v>
+        <v>142.0080610499963</v>
       </c>
       <c r="W46" t="n">
-        <v>64.43435870905429</v>
+        <v>64.43435870905441</v>
       </c>
       <c r="X46" t="n">
-        <v>47.41845127226017</v>
+        <v>47.41845127226023</v>
       </c>
       <c r="Y46" t="n">
         <v>37.86889339560851</v>
@@ -7979,13 +7979,13 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1112290740114</v>
+        <v>316.2789560975179</v>
       </c>
       <c r="L2" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M2" t="n">
-        <v>443.3272819143135</v>
+        <v>464.1595548908052</v>
       </c>
       <c r="N2" t="n">
         <v>454.8408013884635</v>
@@ -8055,28 +8055,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6624977795921</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>177.3541462889635</v>
+        <v>266.8202865543998</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>367.6301467754643</v>
       </c>
       <c r="O3" t="n">
-        <v>378.603315827548</v>
+        <v>378.6033158275476</v>
       </c>
       <c r="P3" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8222,13 +8222,13 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M5" t="n">
-        <v>464.1595548908048</v>
+        <v>443.3272819143117</v>
       </c>
       <c r="N5" t="n">
         <v>454.8408013884635</v>
       </c>
       <c r="O5" t="n">
-        <v>375.1999155367607</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P5" t="n">
         <v>225.4521708613878</v>
@@ -8298,16 +8298,16 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6624977795913</v>
+        <v>374.6624977795916</v>
       </c>
       <c r="M6" t="n">
         <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>166.8316324962441</v>
+        <v>367.6301467754643</v>
       </c>
       <c r="O6" t="n">
-        <v>378.6033158275472</v>
+        <v>177.8048015483281</v>
       </c>
       <c r="P6" t="n">
         <v>331.2012793855346</v>
@@ -8529,10 +8529,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>385.6739591155975</v>
@@ -8541,13 +8541,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>270.5420704802609</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8769,7 +8769,7 @@
         <v>111.0386609051908</v>
       </c>
       <c r="K12" t="n">
-        <v>249.7597232038512</v>
+        <v>150.6998754259089</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8787,7 +8787,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>119.4205314673407</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9006,7 +9006,7 @@
         <v>111.0386609051908</v>
       </c>
       <c r="K15" t="n">
-        <v>150.6998754259097</v>
+        <v>249.7597232038513</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9024,7 +9024,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>119.4205314673407</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9480,13 +9480,13 @@
         <v>111.0386609051908</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>150.6998754259089</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>459.0491430107694</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
         <v>498.5160693172957</v>
@@ -9498,7 +9498,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>119.4205314673407</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -10920,7 +10920,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>218.4803792452833</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>239.1843593635994</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>228.8039964392552</v>
+        <v>228.8039964392549</v>
       </c>
       <c r="E11" t="n">
-        <v>241.9153545186993</v>
+        <v>255.317299439944</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>207.7847854945722</v>
+        <v>207.784785494572</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>72.37163684463206</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>123.657042344686</v>
       </c>
       <c r="V11" t="n">
-        <v>200.7324852071761</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>222.7293806852114</v>
+        <v>210.1547383295942</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>243.0608628158259</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>239.1843593635994</v>
       </c>
       <c r="D14" t="n">
-        <v>228.8039964392552</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>255.3172994399443</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>279.4931271651976</v>
       </c>
       <c r="G14" t="n">
-        <v>154.4206630679213</v>
+        <v>85.53985961866735</v>
       </c>
       <c r="H14" t="n">
-        <v>207.7847854945722</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.79271537848395</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>200.7324852071761</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>222.7293806852114</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>128.9886752003952</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>12.57695597598322</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>141.5656311763789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>141.5656311763779</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15.27472093634591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>126.2909102400324</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-1.888428034273694e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-2.701199264265597e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>866978.178944845</v>
+        <v>866978.1789448453</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>981562.5124052747</v>
+        <v>981562.5124052746</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>995391.0742675044</v>
+        <v>995391.0742675042</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>995391.0742675043</v>
+        <v>995391.0742675042</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>447655.674738215</v>
       </c>
       <c r="D2" t="n">
-        <v>447655.674738215</v>
+        <v>447655.6747382152</v>
       </c>
       <c r="E2" t="n">
-        <v>388940.1119026155</v>
+        <v>388940.1119026169</v>
       </c>
       <c r="F2" t="n">
-        <v>388940.1119026156</v>
+        <v>388940.1119026159</v>
       </c>
       <c r="G2" t="n">
         <v>441457.931405313</v>
       </c>
       <c r="H2" t="n">
-        <v>441457.9314053129</v>
+        <v>441457.931405313</v>
       </c>
       <c r="I2" t="n">
-        <v>447655.6747382147</v>
+        <v>447655.6747382148</v>
       </c>
       <c r="J2" t="n">
+        <v>447655.6747382142</v>
+      </c>
+      <c r="K2" t="n">
+        <v>447655.6747382144</v>
+      </c>
+      <c r="L2" t="n">
+        <v>447655.6747382157</v>
+      </c>
+      <c r="M2" t="n">
         <v>447655.6747382146</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>447655.6747382149</v>
       </c>
-      <c r="L2" t="n">
-        <v>447655.6747382145</v>
-      </c>
-      <c r="M2" t="n">
-        <v>447655.6747382147</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>447655.6747382148</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>447655.6747382149</v>
-      </c>
-      <c r="P2" t="n">
-        <v>447655.6747382148</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80286.07981379371</v>
+        <v>80286.07981379356</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10782.53570549431</v>
+        <v>10782.53570549421</v>
       </c>
       <c r="E3" t="n">
-        <v>200712.9859231083</v>
+        <v>200712.9859231085</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>65195.1002036319</v>
+        <v>65195.10020363191</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9700.390179358326</v>
+        <v>9700.390179358266</v>
       </c>
       <c r="J3" t="n">
-        <v>174492.4942755753</v>
+        <v>174492.4942755754</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72379.61589812479</v>
+        <v>72379.6158981248</v>
       </c>
       <c r="M3" t="n">
-        <v>34871.31659729409</v>
+        <v>34871.316597294</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>60184.75676048757</v>
+        <v>60184.75676048767</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>293046.7776112327</v>
+        <v>293046.7776112329</v>
       </c>
       <c r="C4" t="n">
-        <v>293046.7776112329</v>
+        <v>293046.7776112328</v>
       </c>
       <c r="D4" t="n">
-        <v>284530.0264572389</v>
+        <v>284530.026457239</v>
       </c>
       <c r="E4" t="n">
-        <v>193568.3770830806</v>
+        <v>193568.3770830808</v>
       </c>
       <c r="F4" t="n">
         <v>193568.3770830806</v>
@@ -26433,19 +26433,19 @@
         <v>247800.8991779395</v>
       </c>
       <c r="H4" t="n">
-        <v>247800.8991779394</v>
+        <v>247800.8991779395</v>
       </c>
       <c r="I4" t="n">
         <v>251269.9324909704</v>
       </c>
       <c r="J4" t="n">
-        <v>252202.9668635395</v>
+        <v>252202.9668635393</v>
       </c>
       <c r="K4" t="n">
-        <v>252202.9668635395</v>
+        <v>252202.9668635396</v>
       </c>
       <c r="L4" t="n">
-        <v>252029.9530661395</v>
+        <v>252029.9530661396</v>
       </c>
       <c r="M4" t="n">
         <v>251269.9324909704</v>
@@ -26457,7 +26457,7 @@
         <v>251269.9324909704</v>
       </c>
       <c r="P4" t="n">
-        <v>251269.9324909704</v>
+        <v>251269.9324909703</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48193.57623164825</v>
+        <v>48193.57623164823</v>
       </c>
       <c r="C5" t="n">
-        <v>48193.5762316482</v>
+        <v>48193.57623164823</v>
       </c>
       <c r="D5" t="n">
         <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
+        <v>38661.21341948268</v>
+      </c>
+      <c r="F5" t="n">
         <v>38661.21341948266</v>
-      </c>
-      <c r="F5" t="n">
-        <v>38661.21341948265</v>
       </c>
       <c r="G5" t="n">
         <v>45512.32201825657</v>
@@ -26488,28 +26488,28 @@
         <v>45512.32201825657</v>
       </c>
       <c r="I5" t="n">
-        <v>47730.21275612604</v>
+        <v>47730.21275612603</v>
       </c>
       <c r="J5" t="n">
         <v>55307.215061098</v>
       </c>
       <c r="K5" t="n">
-        <v>55307.21506109805</v>
+        <v>55307.21506109802</v>
       </c>
       <c r="L5" t="n">
         <v>53951.72961877722</v>
       </c>
       <c r="M5" t="n">
-        <v>47730.21275612606</v>
+        <v>47730.21275612604</v>
       </c>
       <c r="N5" t="n">
-        <v>47730.21275612604</v>
+        <v>47730.21275612603</v>
       </c>
       <c r="O5" t="n">
         <v>47730.21275612603</v>
       </c>
       <c r="P5" t="n">
-        <v>47730.21275612604</v>
+        <v>47730.21275612603</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26129.24108154055</v>
+        <v>26129.24108154052</v>
       </c>
       <c r="C6" t="n">
-        <v>106415.3208953341</v>
+        <v>106415.320895334</v>
       </c>
       <c r="D6" t="n">
-        <v>102039.0570891124</v>
+        <v>102039.0570891126</v>
       </c>
       <c r="E6" t="n">
-        <v>-44002.46452305599</v>
+        <v>-44269.35344503504</v>
       </c>
       <c r="F6" t="n">
-        <v>156710.5214000524</v>
+        <v>156443.6324780729</v>
       </c>
       <c r="G6" t="n">
-        <v>82949.61000548502</v>
+        <v>82921.43844488099</v>
       </c>
       <c r="H6" t="n">
-        <v>148144.7102091169</v>
+        <v>148116.5386485129</v>
       </c>
       <c r="I6" t="n">
-        <v>138955.13931176</v>
+        <v>138955.1393117601</v>
       </c>
       <c r="J6" t="n">
-        <v>-34347.00146199816</v>
+        <v>-34347.00146199846</v>
       </c>
       <c r="K6" t="n">
-        <v>140145.4928135773</v>
+        <v>140145.4928135768</v>
       </c>
       <c r="L6" t="n">
-        <v>69294.37615517297</v>
+        <v>69294.37615517406</v>
       </c>
       <c r="M6" t="n">
         <v>113784.2128938242</v>
       </c>
       <c r="N6" t="n">
-        <v>148655.5294911184</v>
+        <v>148655.5294911186</v>
       </c>
       <c r="O6" t="n">
-        <v>88470.77273063091</v>
+        <v>88470.77273063074</v>
       </c>
       <c r="P6" t="n">
-        <v>148655.5294911184</v>
+        <v>148655.5294911185</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="F2" t="n">
         <v>127.8007363153432</v>
@@ -26707,25 +26707,25 @@
         <v>209.2946115698831</v>
       </c>
       <c r="J2" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="K2" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="L2" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="M2" t="n">
         <v>209.2946115698831</v>
       </c>
       <c r="N2" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="O2" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="P2" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>62.1405997887648</v>
       </c>
       <c r="F3" t="n">
-        <v>62.14059978876454</v>
+        <v>62.14059978876476</v>
       </c>
       <c r="G3" t="n">
         <v>62.1405997887648</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.5719774942147</v>
+        <v>239.5719774942143</v>
       </c>
       <c r="C4" t="n">
-        <v>239.5719774942139</v>
+        <v>239.5719774942143</v>
       </c>
       <c r="D4" t="n">
         <v>274.2838073416025</v>
@@ -26808,28 +26808,28 @@
         <v>436.882701361727</v>
       </c>
       <c r="I4" t="n">
+        <v>473.3611674451061</v>
+      </c>
+      <c r="J4" t="n">
+        <v>670.6718913126191</v>
+      </c>
+      <c r="K4" t="n">
+        <v>670.6718913126191</v>
+      </c>
+      <c r="L4" t="n">
+        <v>635.9600614652309</v>
+      </c>
+      <c r="M4" t="n">
         <v>473.3611674451063</v>
       </c>
-      <c r="J4" t="n">
-        <v>670.6718913126189</v>
-      </c>
-      <c r="K4" t="n">
-        <v>670.6718913126197</v>
-      </c>
-      <c r="L4" t="n">
-        <v>635.9600614652311</v>
-      </c>
-      <c r="M4" t="n">
-        <v>473.3611674451066</v>
-      </c>
       <c r="N4" t="n">
-        <v>473.3611674451063</v>
+        <v>473.3611674451064</v>
       </c>
       <c r="O4" t="n">
-        <v>473.3611674451063</v>
+        <v>473.3611674451064</v>
       </c>
       <c r="P4" t="n">
-        <v>473.3611674451063</v>
+        <v>473.3611674451064</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-1.686828267169702e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>81.49387525453987</v>
+        <v>81.49387525453989</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>75.23094595060947</v>
+        <v>75.23094595060957</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.47451987265599</v>
+        <v>90.474519872656</v>
       </c>
       <c r="M2" t="n">
-        <v>43.58914574661762</v>
+        <v>43.5891457466175</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>75.23094595060947</v>
+        <v>75.23094595060959</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.5719774942147</v>
+        <v>239.5719774942143</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.337406580219728e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>34.71182984738857</v>
+        <v>34.71182984738823</v>
       </c>
       <c r="E4" t="n">
         <v>162.5988940201245</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>36.47846608337937</v>
+        <v>36.47846608337915</v>
       </c>
       <c r="J4" t="n">
         <v>436.8827013617272</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>81.49387525453987</v>
+        <v>81.49387525453989</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>75.23094595060947</v>
+        <v>75.23094595060957</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.5719774942147</v>
+        <v>239.5719774942143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>34.71182984738857</v>
+        <v>34.71182984738823</v>
       </c>
       <c r="M4" t="n">
         <v>162.5988940201245</v>
@@ -27385,13 +27385,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>383.1180357552875</v>
+        <v>143.5460582610732</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>180.3312825404056</v>
       </c>
       <c r="G2" t="n">
-        <v>175.2827879096162</v>
+        <v>175.2827879096167</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
@@ -27442,10 +27442,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>131.2896216369547</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>167.0183542916405</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
         <v>146.1124235746456</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>80.39755685511082</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>231.4110805949596</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
@@ -27537,10 +27537,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C4" t="n">
-        <v>167.3365529312023</v>
+        <v>152.2034025219467</v>
       </c>
       <c r="D4" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.9746241731992</v>
@@ -27600,7 +27600,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X4" t="n">
-        <v>62.0016430085343</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y4" t="n">
         <v>218.7486738677682</v>
@@ -27625,16 +27625,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>167.7218859863266</v>
       </c>
       <c r="G5" t="n">
-        <v>366.7033300416865</v>
+        <v>175.2827879096167</v>
       </c>
       <c r="H5" t="n">
-        <v>98.57192589393946</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>41.12204293420308</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -27682,7 +27682,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>147.1150942570216</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
         <v>156.0334337071738</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,19 +27743,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>89.95464157530571</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>206.6322824721755</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
@@ -27780,25 +27780,25 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F7" t="n">
-        <v>128.9949286592287</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
         <v>167.8895889301081</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6340720089168</v>
+        <v>136.4794921647122</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>109.4326026497926</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D8" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E8" t="n">
-        <v>113.0180741225562</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27904,7 +27904,7 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>4.183845708871218</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -27919,7 +27919,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
         <v>171.025583927401</v>
@@ -27938,19 +27938,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>25.99871388227784</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>63.02394090434828</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
@@ -28029,13 +28029,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>63.68426508357422</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
-        <v>88.79763414316417</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
         <v>286.0925768874155</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="C11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="D11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="E11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="F11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="G11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="H11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="I11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="J11" t="n">
-        <v>101.4104499735496</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>101.4104499735491</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>127.8007363153432</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="R11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="S11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="T11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="U11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="V11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="W11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="X11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
     </row>
     <row r="12">
@@ -28169,25 +28169,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="D12" t="n">
-        <v>127.8007363153432</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>127.8007363153432</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="H12" t="n">
         <v>109.1716324963322</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>81.90162168866219</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,19 +28217,19 @@
         <v>86.39627852892372</v>
       </c>
       <c r="S12" t="n">
-        <v>127.8007363153432</v>
+        <v>62.48322728411775</v>
       </c>
       <c r="T12" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="U12" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="V12" t="n">
-        <v>16.58411265743808</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="C13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="D13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="E13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="F13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="G13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="H13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="I13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="J13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="K13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="L13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="M13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="N13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="O13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="P13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="R13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="S13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="T13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="U13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="V13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="W13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="X13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.8007363153432</v>
+        <v>127.8007363153434</v>
       </c>
     </row>
     <row r="14">
@@ -28363,7 +28363,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>101.4104499735509</v>
+        <v>101.4104499735498</v>
       </c>
       <c r="P14" t="n">
         <v>127.8007363153432</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.8007363153432</v>
       </c>
       <c r="H15" t="n">
         <v>109.1716324963322</v>
       </c>
       <c r="I15" t="n">
-        <v>81.90162168866222</v>
+        <v>16.58411265743841</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,16 +28451,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.39627852892376</v>
+        <v>86.39627852892373</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>127.8007363153432</v>
       </c>
       <c r="T15" t="n">
         <v>127.8007363153432</v>
       </c>
       <c r="U15" t="n">
-        <v>62.48322728411941</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>127.8007363153432</v>
@@ -28472,7 +28472,7 @@
         <v>127.8007363153432</v>
       </c>
       <c r="Y15" t="n">
-        <v>127.8007363153432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28582,10 +28582,10 @@
         <v>209.2946115698831</v>
       </c>
       <c r="I17" t="n">
-        <v>195.5934516938271</v>
+        <v>209.2946115698831</v>
       </c>
       <c r="J17" t="n">
-        <v>57.10119736990549</v>
+        <v>209.2946115698831</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>209.2946115698831</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>43.40003749384961</v>
       </c>
       <c r="R17" t="n">
         <v>209.2946115698831</v>
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>78.37632082038387</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>135.8895492922891</v>
@@ -28661,7 +28661,7 @@
         <v>109.1716324963322</v>
       </c>
       <c r="I18" t="n">
-        <v>81.90162168866219</v>
+        <v>73.88166398012228</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.39627852892372</v>
       </c>
       <c r="S18" t="n">
         <v>166.4789210744612</v>
@@ -28697,13 +28697,13 @@
         <v>197.8437846327415</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>209.2946115698831</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>80.91642780389002</v>
       </c>
       <c r="K19" t="n">
-        <v>1.755444712908533</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>168.3526655951064</v>
       </c>
       <c r="S19" t="n">
-        <v>209.2946115698831</v>
+        <v>206.1397778454848</v>
       </c>
       <c r="T19" t="n">
         <v>209.2946115698831</v>
@@ -28785,7 +28785,7 @@
         <v>209.2946115698831</v>
       </c>
       <c r="X19" t="n">
-        <v>204.3843331325762</v>
+        <v>209.2946115698831</v>
       </c>
       <c r="Y19" t="n">
         <v>209.2946115698831</v>
@@ -28822,19 +28822,19 @@
         <v>209.2946115698831</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>209.2946115698831</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>43.40003749384974</v>
       </c>
       <c r="M20" t="n">
-        <v>91.54949478453187</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>161.1451542792008</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.8895492922891</v>
       </c>
       <c r="H21" t="n">
         <v>109.1716324963322</v>
@@ -28925,22 +28925,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.39627852892372</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.4789210744612</v>
       </c>
       <c r="T21" t="n">
         <v>197.8437846327415</v>
       </c>
       <c r="U21" t="n">
-        <v>209.2946115698831</v>
+        <v>201.2746538613433</v>
       </c>
       <c r="V21" t="n">
-        <v>209.2946115698831</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>171.450179617251</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>150.3886926318096</v>
       </c>
       <c r="J22" t="n">
-        <v>80.91642780389002</v>
+        <v>77.76159407949173</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>168.3526655951064</v>
       </c>
       <c r="S22" t="n">
-        <v>206.1397778454848</v>
+        <v>209.2946115698831</v>
       </c>
       <c r="T22" t="n">
         <v>209.2946115698831</v>
@@ -29059,7 +29059,7 @@
         <v>209.2946115698831</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>209.2946115698831</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29071,13 +29071,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>187.8400244098567</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>209.2946115698831</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>187.8400244098561</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.8895492922891</v>
@@ -29135,7 +29135,7 @@
         <v>109.1716324963322</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>81.90162168866219</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29168,10 +29168,10 @@
         <v>166.4789210744612</v>
       </c>
       <c r="T24" t="n">
-        <v>195.948196922819</v>
+        <v>197.8437846327415</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>59.70902268496536</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29208,7 +29208,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7775321108168</v>
+        <v>164.6226983864186</v>
       </c>
       <c r="H25" t="n">
         <v>160.6377850155822</v>
@@ -29262,7 +29262,7 @@
         <v>209.2946115698831</v>
       </c>
       <c r="Y25" t="n">
-        <v>206.1397778454848</v>
+        <v>209.2946115698831</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="C26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="D26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="E26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="F26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="G26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="H26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="I26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="J26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="K26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="L26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="M26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="N26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="O26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="P26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="Q26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="R26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="S26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="T26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="U26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="V26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="W26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="X26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="Y26" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
     </row>
     <row r="27">
@@ -29354,22 +29354,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>156.7248212051493</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.8895492922891</v>
+        <v>102.9654031906086</v>
       </c>
       <c r="H27" t="n">
-        <v>63.7202847710268</v>
+        <v>109.1716324963322</v>
       </c>
       <c r="I27" t="n">
         <v>81.90162168866219</v>
@@ -29402,10 +29402,10 @@
         <v>86.39627852892372</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>156.7248212051493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="C28" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="H28" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="I28" t="n">
-        <v>150.3886926318096</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="J28" t="n">
-        <v>80.91642780389002</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="K28" t="n">
-        <v>34.20248186472395</v>
+        <v>1.755444712908533</v>
       </c>
       <c r="L28" t="n">
-        <v>156.7248212051493</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>78.99208486444311</v>
       </c>
       <c r="P28" t="n">
-        <v>156.7248212051493</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="R28" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="T28" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="U28" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="V28" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="W28" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="X28" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
       <c r="Y28" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051492</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="C29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="D29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="E29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="F29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="G29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="H29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="I29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="J29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="K29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="L29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="M29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="N29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="O29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="P29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="Q29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="R29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="S29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="T29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="U29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="V29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="W29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="X29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="Y29" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
     </row>
     <row r="30">
@@ -29636,19 +29636,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.25354330564309</v>
+        <v>86.39627852892372</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="U30" t="n">
-        <v>156.7248212051493</v>
+        <v>110.5820859818683</v>
       </c>
       <c r="V30" t="n">
-        <v>156.7248212051493</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>156.7248212051493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="C31" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -29682,10 +29682,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="H31" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="I31" t="n">
         <v>150.3886926318096</v>
@@ -29697,46 +29697,46 @@
         <v>1.755444712908533</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>118.7943890492184</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="N31" t="n">
-        <v>118.7943890492201</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="O31" t="n">
-        <v>156.7248212051493</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>156.7248212051493</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>70.37746930774469</v>
       </c>
       <c r="R31" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="T31" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="U31" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="V31" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="W31" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="X31" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
       <c r="Y31" t="n">
-        <v>156.7248212051493</v>
+        <v>156.7248212051495</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="C32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="D32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="E32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="F32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="G32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="H32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="I32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="J32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="L32" t="n">
-        <v>113.1403088695852</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="M32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="N32" t="n">
-        <v>165.7054658232655</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>165.7054658232655</v>
+        <v>113.1403088695842</v>
       </c>
       <c r="P32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="Q32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="R32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="S32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="T32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="U32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="V32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="W32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="X32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="Y32" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>135.8895492922891</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1716324963322</v>
+        <v>36.08696341870265</v>
       </c>
       <c r="I33" t="n">
         <v>81.90162168866219</v>
@@ -29873,16 +29873,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>13.31160945129442</v>
+        <v>86.39627852892372</v>
       </c>
       <c r="S33" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="T33" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="U33" t="n">
-        <v>165.7054658232655</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29894,7 +29894,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>165.7054658232656</v>
       </c>
     </row>
     <row r="34">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="C34" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
@@ -29919,16 +29919,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="H34" t="n">
         <v>160.6377850155822</v>
       </c>
       <c r="I34" t="n">
-        <v>165.7054658232655</v>
+        <v>150.3886926318096</v>
       </c>
       <c r="J34" t="n">
-        <v>132.024942017311</v>
+        <v>80.91642780389002</v>
       </c>
       <c r="K34" t="n">
         <v>1.755444712908533</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>165.7054658232655</v>
+        <v>161.7532839203962</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>165.7054658232655</v>
+        <v>70.37746930774469</v>
       </c>
       <c r="R34" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="S34" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="T34" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="U34" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="V34" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="W34" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="X34" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.7054658232655</v>
+        <v>165.7054658232656</v>
       </c>
     </row>
     <row r="35">
@@ -30004,22 +30004,22 @@
         <v>209.2946115698831</v>
       </c>
       <c r="I35" t="n">
-        <v>195.5934516938271</v>
+        <v>209.2946115698831</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.250060300841763</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>209.2946115698831</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>186.5899641090152</v>
+        <v>186.5899641090149</v>
       </c>
       <c r="N35" t="n">
-        <v>197.6236203625805</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>26.62221138420126</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>209.2946115698831</v>
@@ -30062,13 +30062,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>109.1716324963322</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>81.90162168866219</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.39627852892372</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>166.4789210744612</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.8437846327415</v>
+        <v>27.91787380869962</v>
       </c>
       <c r="U36" t="n">
-        <v>141.6106443736269</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30204,10 +30204,10 @@
         <v>209.2946115698831</v>
       </c>
       <c r="W37" t="n">
-        <v>204.3843331325762</v>
+        <v>209.2946115698831</v>
       </c>
       <c r="X37" t="n">
-        <v>209.2946115698831</v>
+        <v>204.3843331325763</v>
       </c>
       <c r="Y37" t="n">
         <v>209.2946115698831</v>
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="C38" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="D38" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="E38" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="F38" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="G38" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="H38" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="I38" t="n">
-        <v>195.5934516938271</v>
+        <v>196.9622628197648</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>209.294611569883</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30262,34 +30262,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>209.2946115698831</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="R38" t="n">
-        <v>201.5411842859126</v>
+        <v>209.294611569883</v>
       </c>
       <c r="S38" t="n">
-        <v>209.2946115698831</v>
+        <v>200.1723731599755</v>
       </c>
       <c r="T38" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="U38" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="V38" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="W38" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="X38" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="Y38" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
     </row>
     <row r="39">
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.8895492922891</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.1716324963322</v>
       </c>
       <c r="I39" t="n">
-        <v>81.90162168866219</v>
+        <v>73.03856405743754</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.39627852892372</v>
       </c>
       <c r="S39" t="n">
-        <v>103.2896107184662</v>
+        <v>166.4789210744612</v>
       </c>
       <c r="T39" t="n">
         <v>197.8437846327415</v>
       </c>
       <c r="U39" t="n">
-        <v>209.2946115698831</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30365,7 +30365,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>168.3526655951064</v>
       </c>
       <c r="S40" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="T40" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="U40" t="n">
-        <v>204.3843331325763</v>
+        <v>204.3843331325766</v>
       </c>
       <c r="V40" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="W40" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="X40" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="Y40" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="C41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="D41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="E41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="F41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="G41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="H41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="I41" t="n">
-        <v>209.2946115698831</v>
+        <v>195.5934516938271</v>
       </c>
       <c r="J41" t="n">
-        <v>12.92105150814479</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30490,43 +30490,43 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>186.5899641090149</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>197.6236203625801</v>
+        <v>197.6236203625803</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>209.294611569883</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>3.917563923332949</v>
       </c>
       <c r="R41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="S41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="T41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="U41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="V41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="W41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="X41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="Y41" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
     </row>
     <row r="42">
@@ -30548,7 +30548,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>59.70902268496462</v>
       </c>
       <c r="G42" t="n">
         <v>135.8895492922891</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.39627852892372</v>
       </c>
       <c r="S42" t="n">
         <v>166.4789210744612</v>
@@ -30593,7 +30593,7 @@
         <v>197.8437846327415</v>
       </c>
       <c r="U42" t="n">
-        <v>146.1053012138881</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>168.3526655951064</v>
       </c>
       <c r="S43" t="n">
-        <v>209.2946115698831</v>
+        <v>204.3843331325766</v>
       </c>
       <c r="T43" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="U43" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="V43" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="W43" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="X43" t="n">
-        <v>204.3843331325763</v>
+        <v>209.294611569883</v>
       </c>
       <c r="Y43" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="C44" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="D44" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="E44" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="F44" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="G44" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="H44" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="I44" t="n">
-        <v>209.2946115698831</v>
+        <v>195.5934516938271</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>209.294611569883</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>186.5899641090149</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>209.294611569883</v>
       </c>
       <c r="P44" t="n">
-        <v>1.25006030084208</v>
+        <v>75.38258048546192</v>
       </c>
       <c r="Q44" t="n">
-        <v>209.2946115698831</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>209.2946115698831</v>
+        <v>126.1586038004509</v>
       </c>
       <c r="S44" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="T44" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="U44" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="V44" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="W44" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="X44" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="Y44" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
     </row>
     <row r="45">
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>135.8895492922891</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.39627852892372</v>
       </c>
       <c r="S45" t="n">
-        <v>103.2896107184662</v>
+        <v>166.4789210744612</v>
       </c>
       <c r="T45" t="n">
-        <v>197.8437846327415</v>
+        <v>114.0465752341568</v>
       </c>
       <c r="U45" t="n">
-        <v>209.2946115698831</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>168.3526655951064</v>
       </c>
       <c r="S46" t="n">
-        <v>209.2946115698831</v>
+        <v>204.3843331325766</v>
       </c>
       <c r="T46" t="n">
-        <v>204.3843331325763</v>
+        <v>209.294611569883</v>
       </c>
       <c r="U46" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="V46" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="W46" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="X46" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.2946115698831</v>
+        <v>209.294611569883</v>
       </c>
     </row>
   </sheetData>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2498114564372442</v>
+        <v>0.2498114564372451</v>
       </c>
       <c r="H14" t="n">
-        <v>2.558381578237928</v>
+        <v>2.558381578237937</v>
       </c>
       <c r="I14" t="n">
-        <v>9.630856174296866</v>
+        <v>9.6308561742969</v>
       </c>
       <c r="J14" t="n">
-        <v>21.20243510079057</v>
+        <v>21.20243510079065</v>
       </c>
       <c r="K14" t="n">
-        <v>31.77695405177912</v>
+        <v>31.77695405177924</v>
       </c>
       <c r="L14" t="n">
-        <v>39.42212141172045</v>
+        <v>39.42212141172059</v>
       </c>
       <c r="M14" t="n">
-        <v>43.86470590013629</v>
+        <v>43.86470590013644</v>
       </c>
       <c r="N14" t="n">
-        <v>44.57448270073861</v>
+        <v>44.57448270073877</v>
       </c>
       <c r="O14" t="n">
-        <v>42.09042003079076</v>
+        <v>42.09042003079091</v>
       </c>
       <c r="P14" t="n">
-        <v>35.92319969999629</v>
+        <v>35.92319969999642</v>
       </c>
       <c r="Q14" t="n">
-        <v>26.97682691633747</v>
+        <v>26.97682691633757</v>
       </c>
       <c r="R14" t="n">
-        <v>15.69221890042605</v>
+        <v>15.69221890042611</v>
       </c>
       <c r="S14" t="n">
-        <v>5.692578563563708</v>
+        <v>5.692578563563728</v>
       </c>
       <c r="T14" t="n">
-        <v>1.093549650554037</v>
+        <v>1.093549650554041</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01998491651497953</v>
+        <v>0.0199849165149796</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1336609127531917</v>
+        <v>0.1336609127531921</v>
       </c>
       <c r="H15" t="n">
-        <v>1.290883025800562</v>
+        <v>1.290883025800566</v>
       </c>
       <c r="I15" t="n">
-        <v>4.60192177680945</v>
+        <v>4.601921776809466</v>
       </c>
       <c r="J15" t="n">
-        <v>12.62802509480922</v>
+        <v>12.62802509480926</v>
       </c>
       <c r="K15" t="n">
-        <v>21.58330624927306</v>
+        <v>21.58330624927314</v>
       </c>
       <c r="L15" t="n">
-        <v>29.02141879757348</v>
+        <v>29.02141879757358</v>
       </c>
       <c r="M15" t="n">
-        <v>33.86662688487667</v>
+        <v>33.86662688487679</v>
       </c>
       <c r="N15" t="n">
-        <v>34.76297572522593</v>
+        <v>34.76297572522606</v>
       </c>
       <c r="O15" t="n">
-        <v>31.80133129001047</v>
+        <v>31.80133129001058</v>
       </c>
       <c r="P15" t="n">
-        <v>25.52337201512482</v>
+        <v>25.52337201512491</v>
       </c>
       <c r="Q15" t="n">
-        <v>17.06169826653022</v>
+        <v>17.06169826653028</v>
       </c>
       <c r="R15" t="n">
-        <v>8.298701232167463</v>
+        <v>8.298701232167494</v>
       </c>
       <c r="S15" t="n">
-        <v>2.482692831183186</v>
+        <v>2.482692831183194</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5387472755271188</v>
+        <v>0.5387472755271207</v>
       </c>
       <c r="U15" t="n">
-        <v>0.008793481102183665</v>
+        <v>0.008793481102183696</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1120568192912147</v>
+        <v>0.1120568192912151</v>
       </c>
       <c r="H16" t="n">
-        <v>0.996286993334619</v>
+        <v>0.9962869933346226</v>
       </c>
       <c r="I16" t="n">
-        <v>3.369854165593986</v>
+        <v>3.369854165593998</v>
       </c>
       <c r="J16" t="n">
-        <v>7.922417123888881</v>
+        <v>7.922417123888909</v>
       </c>
       <c r="K16" t="n">
-        <v>13.01896500492476</v>
+        <v>13.01896500492481</v>
       </c>
       <c r="L16" t="n">
-        <v>16.65979293353206</v>
+        <v>16.65979293353211</v>
       </c>
       <c r="M16" t="n">
-        <v>17.5654157730765</v>
+        <v>17.56541577307657</v>
       </c>
       <c r="N16" t="n">
-        <v>17.14774944662744</v>
+        <v>17.1477494466275</v>
       </c>
       <c r="O16" t="n">
-        <v>15.83872205763461</v>
+        <v>15.83872205763467</v>
       </c>
       <c r="P16" t="n">
-        <v>13.55276294409382</v>
+        <v>13.55276294409387</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.383230568103444</v>
+        <v>9.383230568103478</v>
       </c>
       <c r="R16" t="n">
-        <v>5.03848207467589</v>
+        <v>5.038482074675908</v>
       </c>
       <c r="S16" t="n">
-        <v>1.952844750738714</v>
+        <v>1.952844750738721</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4787882278806446</v>
+        <v>0.4787882278806463</v>
       </c>
       <c r="U16" t="n">
-        <v>0.006112190143157174</v>
+        <v>0.006112190143157196</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34699,13 +34699,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>122.5236243051553</v>
+        <v>101.6913513286619</v>
       </c>
       <c r="L2" t="n">
         <v>204.4954085367308</v>
       </c>
       <c r="M2" t="n">
-        <v>218.7397045177226</v>
+        <v>239.5719774942143</v>
       </c>
       <c r="N2" t="n">
         <v>231.1630643817873</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>239.5719774942147</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>38.77346321499569</v>
+        <v>128.239603480432</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>239.5719774942143</v>
       </c>
       <c r="O3" t="n">
-        <v>239.5719774942147</v>
+        <v>239.5719774942143</v>
       </c>
       <c r="P3" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34942,13 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M5" t="n">
-        <v>239.5719774942139</v>
+        <v>218.7397045177208</v>
       </c>
       <c r="N5" t="n">
         <v>231.1630643817873</v>
       </c>
       <c r="O5" t="n">
-        <v>150.8541594006162</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
-        <v>239.5719774942139</v>
+        <v>239.5719774942143</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>38.77346321499414</v>
+        <v>239.5719774942143</v>
       </c>
       <c r="O6" t="n">
-        <v>239.5719774942139</v>
+        <v>38.77346321499483</v>
       </c>
       <c r="P6" t="n">
         <v>200.5762321565626</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>250.5834388302202</v>
@@ -35261,13 +35261,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>142.4839011990109</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>121.9536079397779</v>
+        <v>148.3438942815717</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3005783569346</v>
+        <v>255.7110283304837</v>
       </c>
       <c r="L11" t="n">
         <v>243.9175299484515</v>
@@ -35425,13 +35425,13 @@
         <v>213.7768524079015</v>
       </c>
       <c r="P11" t="n">
-        <v>272.9424216522938</v>
+        <v>145.1416853369506</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.8371058903934</v>
+        <v>158.8371058903936</v>
       </c>
       <c r="R11" t="n">
-        <v>1.642132514892246</v>
+        <v>1.642132514892488</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>136.9476264531243</v>
+        <v>37.88777867518199</v>
       </c>
       <c r="L12" t="n">
         <v>279.6048576277938</v>
@@ -35507,7 +35507,7 @@
         <v>226.0996041716876</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>99.05984777794239</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.88430851145318</v>
+        <v>46.88430851145342</v>
       </c>
       <c r="K13" t="n">
-        <v>126.0452916024347</v>
+        <v>126.0452916024349</v>
       </c>
       <c r="L13" t="n">
-        <v>181.9216594778846</v>
+        <v>181.9216594778848</v>
       </c>
       <c r="M13" t="n">
-        <v>195.5635600853283</v>
+        <v>195.5635600853286</v>
       </c>
       <c r="N13" t="n">
-        <v>199.1455054266086</v>
+        <v>199.1455054266088</v>
       </c>
       <c r="O13" t="n">
-        <v>178.2076664029489</v>
+        <v>178.2076664029492</v>
       </c>
       <c r="P13" t="n">
-        <v>147.4755211581209</v>
+        <v>147.4755211581212</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.42326700759851</v>
+        <v>57.42326700759875</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>20.54315796622816</v>
+        <v>20.54315796622823</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3005783569344</v>
+        <v>154.3005783569346</v>
       </c>
       <c r="L14" t="n">
-        <v>243.9175299484513</v>
+        <v>243.9175299484514</v>
       </c>
       <c r="M14" t="n">
-        <v>286.7712033360912</v>
+        <v>286.7712033360914</v>
       </c>
       <c r="N14" t="n">
-        <v>275.737547082526</v>
+        <v>275.7375470825261</v>
       </c>
       <c r="O14" t="n">
-        <v>315.1873023814523</v>
+        <v>315.1873023814513</v>
       </c>
       <c r="P14" t="n">
-        <v>272.9424216522937</v>
+        <v>272.9424216522938</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.8371058903933</v>
+        <v>158.8371058903934</v>
       </c>
       <c r="R14" t="n">
-        <v>1.642132514892181</v>
+        <v>1.642132514892221</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>37.88777867518274</v>
+        <v>136.9476264531244</v>
       </c>
       <c r="L15" t="n">
-        <v>279.6048576277936</v>
+        <v>279.6048576277938</v>
       </c>
       <c r="M15" t="n">
-        <v>379.6192101109087</v>
+        <v>379.6192101109089</v>
       </c>
       <c r="N15" t="n">
-        <v>405.2208757612716</v>
+        <v>405.2208757612717</v>
       </c>
       <c r="O15" t="n">
-        <v>302.3868050044758</v>
+        <v>302.3868050044759</v>
       </c>
       <c r="P15" t="n">
-        <v>226.0996041716875</v>
+        <v>226.0996041716876</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.05984777794231</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.88430851145314</v>
+        <v>46.88430851145316</v>
       </c>
       <c r="K16" t="n">
         <v>126.0452916024346</v>
       </c>
       <c r="L16" t="n">
-        <v>181.9216594778845</v>
+        <v>181.9216594778846</v>
       </c>
       <c r="M16" t="n">
         <v>195.5635600853283</v>
       </c>
       <c r="N16" t="n">
-        <v>199.1455054266085</v>
+        <v>199.1455054266086</v>
       </c>
       <c r="O16" t="n">
         <v>178.2076664029489</v>
@@ -35823,7 +35823,7 @@
         <v>147.4755211581209</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.42326700759847</v>
+        <v>57.4232670075985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,10 +35878,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>13.70115987605597</v>
       </c>
       <c r="J17" t="n">
-        <v>77.64435533613374</v>
+        <v>229.8377695361113</v>
       </c>
       <c r="K17" t="n">
         <v>154.3005783569346</v>
@@ -35899,10 +35899,10 @@
         <v>213.7768524079015</v>
       </c>
       <c r="P17" t="n">
-        <v>354.4362969068336</v>
+        <v>145.1416853369506</v>
       </c>
       <c r="Q17" t="n">
-        <v>31.0363695750502</v>
+        <v>74.43640706889981</v>
       </c>
       <c r="R17" t="n">
         <v>83.13600776943213</v>
@@ -36118,19 +36118,19 @@
         <v>13.70115987605597</v>
       </c>
       <c r="J20" t="n">
-        <v>20.54315796622825</v>
+        <v>229.8377695361113</v>
       </c>
       <c r="K20" t="n">
         <v>154.3005783569346</v>
       </c>
       <c r="L20" t="n">
-        <v>243.9175299484515</v>
+        <v>287.3175674423012</v>
       </c>
       <c r="M20" t="n">
-        <v>378.3206981206233</v>
+        <v>286.7712033360914</v>
       </c>
       <c r="N20" t="n">
-        <v>436.882701361727</v>
+        <v>275.7375470825261</v>
       </c>
       <c r="O20" t="n">
         <v>213.7768524079015</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>162.2317497423549</v>
+        <v>37.88777867518199</v>
       </c>
       <c r="L21" t="n">
         <v>279.6048576277938</v>
       </c>
       <c r="M21" t="n">
-        <v>354.3350868216783</v>
+        <v>379.6192101109089</v>
       </c>
       <c r="N21" t="n">
         <v>405.2208757612717</v>
@@ -36218,7 +36218,7 @@
         <v>226.0996041716876</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>99.05984777794239</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>13.70115987605597</v>
       </c>
       <c r="J23" t="n">
-        <v>20.54315796622825</v>
+        <v>229.8377695361113</v>
       </c>
       <c r="K23" t="n">
         <v>154.3005783569346</v>
@@ -36367,13 +36367,13 @@
         <v>286.7712033360914</v>
       </c>
       <c r="N23" t="n">
-        <v>463.5775714923828</v>
+        <v>275.7375470825261</v>
       </c>
       <c r="O23" t="n">
-        <v>423.0714639777846</v>
+        <v>213.7768524079015</v>
       </c>
       <c r="P23" t="n">
-        <v>145.1416853369506</v>
+        <v>332.9817097468067</v>
       </c>
       <c r="Q23" t="n">
         <v>31.0363695750502</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>177.2679791713776</v>
+        <v>177.2679791713774</v>
       </c>
       <c r="K26" t="n">
-        <v>311.025399562084</v>
+        <v>311.0253995620838</v>
       </c>
       <c r="L26" t="n">
-        <v>400.6423511536008</v>
+        <v>400.6423511536007</v>
       </c>
       <c r="M26" t="n">
-        <v>443.4960245412407</v>
+        <v>443.4960245412406</v>
       </c>
       <c r="N26" t="n">
-        <v>432.4623682876755</v>
+        <v>432.4623682876753</v>
       </c>
       <c r="O26" t="n">
-        <v>370.5016736130509</v>
+        <v>370.5016736130507</v>
       </c>
       <c r="P26" t="n">
-        <v>301.8665065420999</v>
+        <v>301.8665065420997</v>
       </c>
       <c r="Q26" t="n">
-        <v>187.7611907801995</v>
+        <v>187.7611907801994</v>
       </c>
       <c r="R26" t="n">
-        <v>30.56621740469838</v>
+        <v>30.56621740469824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>7.719254690629839</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>9.750197031950023</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>10.5657997953447</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>6.336128573339573</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>75.80839340125918</v>
       </c>
       <c r="K28" t="n">
-        <v>32.44703715181542</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>210.8457443676907</v>
+        <v>54.12092316254141</v>
       </c>
       <c r="M28" t="n">
         <v>67.76282376998515</v>
       </c>
       <c r="N28" t="n">
-        <v>71.34476911126541</v>
+        <v>228.0695903164146</v>
       </c>
       <c r="O28" t="n">
-        <v>50.40693008760574</v>
+        <v>129.3990149520488</v>
       </c>
       <c r="P28" t="n">
-        <v>176.3996060479271</v>
+        <v>19.67478484277772</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.34735189740465</v>
+        <v>86.34735189740451</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>177.2679791713776</v>
+        <v>177.2679791713777</v>
       </c>
       <c r="K29" t="n">
-        <v>311.025399562084</v>
+        <v>311.0253995620841</v>
       </c>
       <c r="L29" t="n">
-        <v>400.6423511536008</v>
+        <v>400.6423511536009</v>
       </c>
       <c r="M29" t="n">
-        <v>443.4960245412407</v>
+        <v>443.4960245412408</v>
       </c>
       <c r="N29" t="n">
-        <v>432.4623682876755</v>
+        <v>432.4623682876756</v>
       </c>
       <c r="O29" t="n">
-        <v>370.5016736130509</v>
+        <v>370.501673613051</v>
       </c>
       <c r="P29" t="n">
-        <v>301.8665065420999</v>
+        <v>301.8665065421</v>
       </c>
       <c r="Q29" t="n">
-        <v>187.7611907801995</v>
+        <v>187.7611907801997</v>
       </c>
       <c r="R29" t="n">
-        <v>30.56621740469839</v>
+        <v>30.56621740469851</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36993,19 +36993,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>54.12092316254141</v>
+        <v>172.9153122117598</v>
       </c>
       <c r="M31" t="n">
-        <v>67.76282376998515</v>
+        <v>224.4876449751346</v>
       </c>
       <c r="N31" t="n">
-        <v>190.1391581604855</v>
+        <v>228.0695903164149</v>
       </c>
       <c r="O31" t="n">
-        <v>207.1317512927551</v>
+        <v>50.40693008760574</v>
       </c>
       <c r="P31" t="n">
-        <v>176.3996060479271</v>
+        <v>19.67478484277772</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.2486237894937</v>
+        <v>186.2486237894938</v>
       </c>
       <c r="K32" t="n">
-        <v>154.3005783569346</v>
+        <v>320.0060441802002</v>
       </c>
       <c r="L32" t="n">
-        <v>357.0578388180367</v>
+        <v>409.622995771717</v>
       </c>
       <c r="M32" t="n">
-        <v>452.4766691593568</v>
+        <v>452.476669159357</v>
       </c>
       <c r="N32" t="n">
-        <v>441.4430129057916</v>
+        <v>275.7375470825261</v>
       </c>
       <c r="O32" t="n">
-        <v>379.482318231167</v>
+        <v>326.9171612774857</v>
       </c>
       <c r="P32" t="n">
-        <v>310.847151160216</v>
+        <v>310.8471511602161</v>
       </c>
       <c r="Q32" t="n">
-        <v>196.7418353983157</v>
+        <v>196.7418353983158</v>
       </c>
       <c r="R32" t="n">
-        <v>39.5468620228145</v>
+        <v>39.54686202281462</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37221,10 +37221,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>15.31677319145583</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>51.10851421342098</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37236,16 +37236,16 @@
         <v>67.76282376998515</v>
       </c>
       <c r="N34" t="n">
-        <v>237.0502349345309</v>
+        <v>233.0980530316616</v>
       </c>
       <c r="O34" t="n">
-        <v>50.40693008760574</v>
+        <v>216.1123959108713</v>
       </c>
       <c r="P34" t="n">
         <v>19.67478484277772</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.32799651552077</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,22 +37300,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>13.70115987605597</v>
       </c>
       <c r="J35" t="n">
-        <v>20.54315796622825</v>
+        <v>21.79321826707001</v>
       </c>
       <c r="K35" t="n">
-        <v>154.3005783569346</v>
+        <v>363.5951899268177</v>
       </c>
       <c r="L35" t="n">
         <v>243.9175299484515</v>
       </c>
       <c r="M35" t="n">
-        <v>473.3611674451066</v>
+        <v>473.3611674451063</v>
       </c>
       <c r="N35" t="n">
-        <v>473.3611674451066</v>
+        <v>275.7375470825261</v>
       </c>
       <c r="O35" t="n">
         <v>213.7768524079015</v>
@@ -37324,7 +37324,7 @@
         <v>145.1416853369506</v>
       </c>
       <c r="Q35" t="n">
-        <v>57.65858095925147</v>
+        <v>31.0363695750502</v>
       </c>
       <c r="R35" t="n">
         <v>83.13600776943213</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.368811125937647</v>
       </c>
       <c r="J38" t="n">
         <v>20.54315796622825</v>
       </c>
       <c r="K38" t="n">
-        <v>154.3005783569346</v>
+        <v>363.5951899268176</v>
       </c>
       <c r="L38" t="n">
         <v>243.9175299484515</v>
@@ -37558,16 +37558,16 @@
         <v>213.7768524079015</v>
       </c>
       <c r="P38" t="n">
-        <v>354.4362969068336</v>
+        <v>145.1416853369506</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.3309811449333</v>
+        <v>240.3309811449332</v>
       </c>
       <c r="R38" t="n">
-        <v>75.38258048546163</v>
+        <v>83.13600776943207</v>
       </c>
       <c r="S38" t="n">
-        <v>9.12223840990757</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>226.0996041716876</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.05984777794239</v>
+        <v>99.05984777794259</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>13.70115987605597</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>33.46420947437304</v>
+        <v>20.54315796622825</v>
       </c>
       <c r="K41" t="n">
         <v>154.3005783569346</v>
@@ -37786,25 +37786,25 @@
         <v>243.9175299484515</v>
       </c>
       <c r="M41" t="n">
-        <v>473.3611674451063</v>
+        <v>286.7712033360914</v>
       </c>
       <c r="N41" t="n">
-        <v>473.3611674451063</v>
+        <v>473.3611674451064</v>
       </c>
       <c r="O41" t="n">
         <v>213.7768524079015</v>
       </c>
       <c r="P41" t="n">
-        <v>145.1416853369506</v>
+        <v>354.4362969068336</v>
       </c>
       <c r="Q41" t="n">
-        <v>31.0363695750502</v>
+        <v>34.95393349838315</v>
       </c>
       <c r="R41" t="n">
-        <v>83.13600776943213</v>
+        <v>83.13600776943207</v>
       </c>
       <c r="S41" t="n">
-        <v>9.12223840990757</v>
+        <v>9.122238409907514</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>13.70115987605597</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>20.54315796622825</v>
       </c>
       <c r="K44" t="n">
-        <v>154.3005783569346</v>
+        <v>363.5951899268176</v>
       </c>
       <c r="L44" t="n">
         <v>243.9175299484515</v>
       </c>
       <c r="M44" t="n">
-        <v>473.3611674451063</v>
+        <v>286.7712033360914</v>
       </c>
       <c r="N44" t="n">
         <v>275.7375470825261</v>
       </c>
       <c r="O44" t="n">
-        <v>213.7768524079015</v>
+        <v>423.0714639777846</v>
       </c>
       <c r="P44" t="n">
-        <v>146.3917456377927</v>
+        <v>220.5242658224125</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.3309811449333</v>
+        <v>31.0363695750502</v>
       </c>
       <c r="R44" t="n">
-        <v>83.13600776943213</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.12223840990757</v>
+        <v>9.122238409907514</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
